--- a/xiaohongshu/小红书文案.xlsx
+++ b/xiaohongshu/小红书文案.xlsx
@@ -32,6 +32,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>s999</t>
     </r>
     <r>
@@ -46,6 +52,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>s999</t>
     </r>
     <r>
@@ -60,6 +72,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>s999</t>
     </r>
     <r>
@@ -74,6 +92,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>s999</t>
     </r>
     <r>
@@ -88,6 +112,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>s999</t>
     </r>
     <r>
@@ -1365,7 +1395,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>

--- a/xiaohongshu/小红书文案.xlsx
+++ b/xiaohongshu/小红书文案.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
   <si>
     <t>商品关键词</t>
   </si>
@@ -32,12 +32,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>s999</t>
     </r>
     <r>
@@ -51,6 +45,18 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">“你的本命年守护神”s999纯银本命年月亮兔项链女和田玉心形锆石锁骨链国潮风项链 💫 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐，是否也相信每个人在本命年里都需要一些守护呢？本次要给大家介绍的这款锁骨链，正是你本命年里的守护神！🐇
+这款锁骨链由S999纯银制作，寓意着纯真、纯洁，镶嵌了一颗精美的和田玉，能够为你的本命年带来好运和好运气！💎
+同时，这款项链还设计了一个可爱的月亮兔，用心形的锆石来代替兔子的眼睛，让整个项链更加精致、可爱。🌙
+国潮风的设计风格，让你在佩戴这款项链的时候也能够跟上时代的潮流，时尚而不失优雅。✨
+然而，这款项链不单止适合本命年的女性朋友们佩戴，同样也适合每一位热爱国潮风格的女生们。即使不是本命年，也能够给你带来不一样的运气和美好。🎉
+如果你正处于本命年阶段，或是想要增加些有趣的饰品为自己打气，这款锁骨链会是一个很不错的选择。而且，更多好物还在我的主页等待着你哦！💖</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -72,12 +78,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>s999</t>
     </r>
     <r>
@@ -91,6 +91,16 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">轻奢新款锁骨链，s999纯银和田玉项链女平安喜乐吊牌，伴你每天好心情 🍀 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+哇~小姐姐今天给大家介绍来一款喜庆又适合日常搭配的锁骨链！本宝贝采用s999纯银制作，配上一块可爱的和田玉，同时挂着“平安喜乐”吊牌，简直是文艺又有质感呀。🎉
+而且不仅适合日常穿着，还可以和毛衣等元素搭配起来，轻轻松松打造出小清新感。再配上玉兔元素，不仅是一种吉祥符号，更能突显你的个性魅力唷！😘
+无论是搭配T恤，衬衣还是比较极简单品，都很适合哦。绝不会让你穿搭失误！👌
+既然已经发现了这么适合自己的单品，赶紧点击链接，购买一个吧！还记得一定要去我的主页，更多好物等你来发掘~💖</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -112,12 +122,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>s999</t>
     </r>
     <r>
@@ -131,289 +135,2648 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银一字镶钻珍珠耳钉，让你摆脱平凡无奇的耳饰！👂 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐来给大家推荐一款赞爆的国潮耳饰啦！这款耳钉是由S999纯银制成，镶有钻石和珍珠，造型时髦别致，吸睛效果超级棒！💎
+一字镶钻的设计非常有设计感，在轻轻波动的时候就能展现出璀璨的光芒；加上精美的珍珠，更显优雅大气，让你摆脱平凡无奇的耳饰！🌟
+这款耳钉的尺寸刚刚好，不会过于显眼，但又足以让你成为人们眼中的焦点。无论是配上休闲装还是正式装，把这款耳饰搭配在耳朵上，都能营造出高级甜美的气质。🎀
+笔者个人特别喜欢这款珍珠耳钉，每次戴在耳朵上都感觉自己变得优雅迷人。如果你也喜欢这样高端气质的耳饰，千万不要错过啦！🥰
+记得关注我的主页，更多好物等你来挑选！💖</t>
+  </si>
+  <si>
     <t>s999纯银一字镶钻珍珠耳钉女法式复古气质耳环设计感优雅耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银四芒星项链，海盗船锁骨链，2023必备高级配饰💫 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐今天来给大家推荐一款非常特别的项链——海盗船锁骨链。这款项链的设计十分独特，镶嵌着四颗闪亮的大 S999 纯银四芒星，精雕细琢，质感非常棒。而锁骨链的设计更是别具一格，轻奢小众，非常符合时尚达人的口味。🏴‍☠️
+穿上这款项链，你就可以成为聚会的“海盗船女王”，让人们无法忽视的目光定会聚集在你身上。👑
+除此之外，这款项链还是 2023 年必备的高级配饰之一。无论你是出席年会，还是参加派对，都可以搭配这款项链，让你气质更加突出。🎉
+不仅如此，这款项链的材质非常优质，不会引起皮肤过敏，穿着非常舒适。👍
+总之，如果你想要穿出独特、时尚的气息，就一定不能错过这款s999纯银四芒星项链，海盗船锁骨链，2023必备高级配饰。🌟
+如果你喜欢我的推荐，记得关注我的主页，更多好物等你来发现。💖</t>
+  </si>
+  <si>
     <t>s999纯银四芒星项链女轻奢小众海盗船锁骨链高级设计2023配饰</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银莫比乌斯项链，镂空吊坠的设计太美啦，毛衣链的必备哦！🧣 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐们，又是一个美丽的开始，今天我给大家推荐的是非常艺术的s999纯银莫比乌斯项链哦！ 🌟
+这款项链以一条玲珑的链条为主题，采用莫比乌斯结构，别致又文艺，镂空的吊坠设计更是独一无二。💖
+所以，如果你想要展现自己独特的品味，又不想太张扬，这款莫比乌斯项链是非常适合你的，给你足够多的自信。😍
+项链的长度和大小都非常合适，搭配起来的时候十分柔和，即使是穿得素净的毛衣也会很有精神。毛衣链的必备款啊！🧣
+如果你想要寻找一款小众的高级感项链，又是女孩子最爱的镂空吊坠设计，这款莫比乌斯项链绝对是你的不二之选。👍
+那就快快加入我的关注，来发现更多的小众高级款吧！同时，也欢迎在评论区留下你的听取和反馈，我会及时为你解答哦。🙆‍♀️</t>
+  </si>
+  <si>
     <t>s999纯银莫比乌斯项链女甜美镂空吊坠锁骨链小众高级感毛衣链</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银爱心链条拼接耳钉，女轻奢长款流苏耳环不对称创意耳饰，这样的设计太美了！❤️ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Hey 小姐姐们，今天给大家带来一款绝对不能错过的超美耳饰！👂
+这款耳钉由s999纯银的爱心链条和长款流苏组成，让整个耳朵变得更加立体饱满，做工和设计都是毫无可挑剔的。😘
+而且这款耳钉还采用了不对称的设计，给整个人的形象都增添了几分个性时尚感，让你在人群中脱颖而出。🌟
+无论是搭配休闲装还是正装，都很适合呢！而且这款耳钉的重量非常轻盈，让你整天佩戴都不会感到任何压迫感。💎
+如果你像我一样喜欢独特、创意的饰品，那么这款耳钉一定会成为你的首选哦！起码我现在已经爱不释手了。💖
+记得关注我的主页，还有更多好看的饰品等着你呢！快来一起玩吧。💃</t>
+  </si>
+  <si>
     <t>s999纯银爱心链条拼接耳钉女轻奢长款流苏耳环不对称创意耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">s999足银四叶草项链女，2023新款锁骨链，轻奢小众设计感ins饰品，让你成为路人皆知的时尚潮人！💁‍♀️ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐们，今天想给大家推荐一款非常美丽的 s999足银四叶草项链女，2023新款锁骨链，轻奢小众设计感ins饰品，让你永远不落伍！😍
+这款项链是由足银制成，精致的四叶草造型搭配着一颗上乘的钻石，闪闪发光，非常抢眼！ 4叶草象征着幸运，送给自己或是给重要的人，都是一个非常好的选择。🍀💎
+锁骨链的长度非常合适，即使你穿着低胸装，也不会显得过于浮夸，非常显气质。👸
+不同于一些普通的饰品，这款ins风格的小众设计感，让你成为人们注目的焦点，独一无二的时尚潮人！🌟
+更重要的是，它的款式十分新颖，让你可以穿出大不同的风格，彰显出你的个性和自信。💃
+如果你正好需要一款与众不同的项链来彰显自己的气质和身份，那么这款 s999足银四叶草项链女，2023新款，绝对可以满足你的需求！😘
+欢迎来我的主页，看看我分享的更多好物哦！💖</t>
+  </si>
+  <si>
     <t>s999足银四叶草项链女2023新款锁骨链轻奢小众设计感ins饰品</t>
   </si>
   <si>
+    <t xml:space="preserve">999纯银扭曲耳钉，让你在2023年的时尚舞台上闪耀！🌟 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐最近发现了一款超级美丽的999纯银扭曲耳钉，今天就来和大家分享吧！😘
+这款耳钉采用了扭曲的设计，十分精致，让人看起来一眼就能够吸引到焦点。 C形的设计也使得这款耳钉更加有特色。👀
+穿上这款耳钉，让你的耳朵瞬间变得有型有款，时尚感十足！✨
+对于999纯银这个材质，很多人可能会觉得它不够高级感。但是这款耳钉的设计非常考究，配上纯银材质，让这款耳钉同时展现了高级感和个性。💎
+无论是搭配休闲还是正式的服装，都十分适合哦。而且还特别容易搭配其他珠宝首饰，打造更加独具时尚感的搭配。💕
+如果你想要在2023年的时尚舞台上成为耳钉的主角，那么这款999纯银扭曲耳钉绝对是你的不二之选！赶快来关注我的主页，了解更多精美首饰吧！🎁</t>
+  </si>
+  <si>
     <t>999纯银麻花扭曲耳钉女精致潮流C形耳环2023年新款高级感耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">【爆款推荐】s999纯银交叉爱心耳钉，复古小香风必备的耳饰！💕 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Hey，小仙女们！不知道你们有没有很喜欢复古小香风的耳饰呢？今天来推荐一款超可爱的s999纯银交叉爱心耳钉！🌟
+这款耳钉造型小清新，饰有淡粉色小珍珠和两个交叉的爱心，与小香风的风格完美搭配，同时还能给你增添一份甜美气息。💖
+这款耳钉采用S999纯银材质，不仅有着高质感，还可以预防过敏。整个耳钉非常精致，给人一种质感很强的感觉。✨
+这款耳饰百搭性也非常好，搭配上带些淡雅感觉的裙子或者是清新的小包包，一整套出门，简直美到不要不要的！👍
+总体来说，这个耳钉的款式是真的非常的适合各种小仙女和花花世界的人们，可以说是最近爆款之一了。不管是送给自己还是送给朋友，绝对不会错哦！😉
+赶快点开我的主页，更多时尚好物等你来发现！✨</t>
+  </si>
+  <si>
     <t>s999纯银交叉爱心耳钉女时尚复古小香风百搭心形耳环耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">小众设计，大气高级！s999足银珍珠耳环女，有品位的你一定不能错过！👸 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐今天要向大家推荐一款精美的耳饰——s999足银珍珠耳环女！这款耳环采用了足银材质，珍珠设计，让人感到既新潮时尚，又不失经典儒雅~~ 🎉
+复古设计配上品质珍珠，有着非常浓郁的文艺气息，能够很好地展现你的温柔气质，也足以让你轻松掌握各种场合的着装风格 🌸
+除了这种款式之外，这家店还有许多其他好看的耳饰，总有一款适合你！既然已经被我脱口而出，那就立即来一次浏览吧！💖
+关注我的主页，让你更好地了解我分享的好物和搭配建议，掌握最新时尚趋势，和我一起成为绝佳的时尚搭配达人吧~🌟</t>
+  </si>
+  <si>
     <t>s999足银珍珠耳环女高级感复古贝珠耳饰小众设计耳坠2023新款</t>
   </si>
   <si>
+    <t xml:space="preserve">潮流百搭s999纯银几何形耳环，轻奢感十足！💫 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+最近迷上了几何形的饰品，今天就来推荐一款超美的潮流百搭耳环！🌟
+这款耳环是由S999纯银制成，椭圆形的设计非常特别，而且重量很轻，佩戴很舒适。适合男女士佩戴，也是网红同款哦。😍
+几何形的元素一直都是时尚的潮流，这款耳环也是轻奢的代表，加上纯银的质地，显得格外高级。😎
+不仅仅是佩戴时尚百搭，而且也是不同场合的搭配利器！无论是日常穿搭还是晚宴，都能轻松搭配出惊艳效果。💃
+对于喜欢独特，热爱潮流时尚的朋友们，不要错过这款轻奢感百搭耳环。一定会成为你们的最佳选择！👀
+别忘了关注我的主页，还有更多美丽耳环等你来挑选哦！💖</t>
+  </si>
+  <si>
     <t>s999纯银椭圆几何形耳环潮男女士百搭耳扣网红同款轻奢感耳圈</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银法式复古珍珠耳环耳钉，女孩必备的甜美气质单品！✨ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Hey~小姐姐们，最近我又发现了一款超温柔可爱的耳环，真的不能忍住不跟大家分享啊！😍
+这款耳环使用了S999纯银作为基底，镶嵌着浪漫的珍珠和一些小小的钻石，再加上法式的设计，整个耳环显得高雅得多，给人一种清新甜美的气息。💖
+不规则镶钻的设计非常别致，也更能凸显女孩子的独特韵味，并且还有针式和夹式两种选择适应不同的喜好。🌟
+非常适合搭配各种甜美风格的穿着，无论是日常穿搭还是特别的场合，都能增添女孩子的几分气质。🎀 
+如果你也喜欢这种甜美可爱的风格，那就赶快入手这款耳环吧！一定能让你在人群中更加闪耀！💎
+记得关注我的账号，更多好玩儿好看的单品等你来挑选哦！💕</t>
+  </si>
+  <si>
     <t>s999纯银法式复古珍珠耳环耳钉女甜美气质不规则镶钻耳坠耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">999纯银莫比乌斯环项链女轻奢小众2023双环锁骨链情人节礼物，来为你的TA制造惊喜！🎁 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hey，小仙女们，情人节礼物该怎么选呢？今天我来跟大家介绍一款非常适合作为情人节礼物的美丽项链——999纯银莫比乌斯环双环锁骨链！😍
+莫比乌斯环的设计十分独特，寓意着“永恒、不可阻挡的爱”，是情人节这个特别的日子送给另一半的非常特别的礼物。🥰
+这款项链选用了999纯银，非常有质感，而且非常适合轻奢、小众的气质，让人看起来十分高雅迷人。💎
+双环的设计更是增添了这款项链的独特性，为你的TA带来更多的惊喜和想象力。🌟
+关于长度，这款链子的长度也很合适，既不会让人觉得过于骨感，又不会让人感到拥挤，是锁骨链的最佳长度。👌
+如果你还在为选择情人节礼物而烦恼，这款999纯银莫比乌斯环项链女轻奢小众2023双环锁骨链绝对是一个不错的选择哦！💕
+别忘了在我主页也多多逛逛，发现更多好物。记得点赞和关注，谢谢。💖</t>
+  </si>
+  <si>
     <t>999纯银莫比乌斯环项链女轻奢小众2023双环锁骨链情人节礼物</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银罗马圆环项链，极简复古装扮必备单品！👗 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+喜欢极简风格的小姐姐们，今天我要推荐的这款s999纯银罗马圆环项链一定不会让你失望。😍
+项链的造型设计简约大方，搭配不同风格的衣服都非常适合，不管是穿着 T 恤、衬衫，还是裙子，都能让你的造型升级到极简复古的高度。💽
+罗马圆环的金属质感，给这款项链增添了不少高级感，而且镶钻的小细节设计，更注重了时尚感，让你在人群中脱颖而出。💍
+双环设计，更是让这款项链文艺气息十足，让你摆脱平凡。链条长度合适，穿戴舒适，并且即便长时间佩戴也不会有任何不适感。🌞
+越来越多的女性开始喜欢极简风格的潮流款式，这款s999纯银罗马圆环项链就是你必须备有的单品之一。😉
+现在就赶紧行动，打造出与众不同的高级极简风格。记得关注我的主页，掌握最新潮流单品！💋</t>
+  </si>
+  <si>
     <t>s999纯银罗马圆环项链女极简复古镶钻双环锁骨链个性潮流颈链</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银水滴项链女高级感豆豆锁骨链简约颈链轻奢风精致饰品 😍 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小姐姐们，你们是否也一样喜欢收集各种精致的饰品呢？今天我要给大家介绍一款超级美丽的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纯银水滴项链！✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这款项链简约轻奢风格，非常适合各种场合佩戴，既有高级感又不失时尚感。而且手工打造，细节处理得非常到位，每一个小细节都非常考究，让人看了就爱不释手。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">👏
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水滴造型非常精致，让整个项链看上去更加妖娆迷人，令人想不去喜欢。另外，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有的豆豆也是纯银的，手感舒适，佩戴时也不会觉得重。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">💍
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这款项链的长度最好开口处如长豆豆那么长的，即使有一点小露也非常好看✨。搭配各种不同的服装，都可以穿出不同的风格，让你在人群中独树一帜。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">😎
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果你想要一条优雅、高级、时尚的项链，那么这款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纯银水滴项链绝对是你的不二之选！快来试试看吧！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记得关注我的主页，更多美丽的饰品等着你哦！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>💕</t>
+    </r>
+  </si>
+  <si>
     <t>s999纯银水滴项链女高级感豆豆锁骨链简约颈链轻奢风精致饰品</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银玉兔耳钉，萌宠与文艺的完美结合！赞👍 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐又来推荐一款美丽的耳饰啦！今天给大家介绍的是一款超萌的 s999纯银玉兔耳钉！😍
+这款耳钉是由s999纯银和精美的和田玉制成，设计灵感来自于小兔，玉兔造型，可爱而不失文艺，质感非常好。🐰
+兔耳钉适合各种场合，日常穿着非常得体，特别是搭配文艺复古风格的衣服，更是别有一番风味。🌸
+最近，中式风格遍地开花，这款萌系兔耳钉也是吉祥耳饰代表，可以为你的穿着添上一份祥瑞，彰显时尚气息！✨
+这款耳钉非常适合22岁年轻女孩，想增添自己的萌翻指数，希望你们喜欢。💖
+别忘了关注我的号，更多好物推荐等你来哦！😘</t>
+  </si>
+  <si>
     <t>s999纯银玉兔耳钉女文艺复古风和田玉萌宠耳环新中式吉祥耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">🦋s999纯银蝴蝶结珍珠项链女，2023轻奢高级感小众爆款贝珠锁骨链！推荐👍 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+嗨，小姐姐来推荐一款设计非常独特的项链，它是一款 s999纯银蝴蝶结珍珠项链女，以蝴蝶结的形式装饰了一颗清新淡雅的珍珠，非常适合2023年的轻奢、高级感搭配。😘
+这款项链是由珍珠和锆石等元素组成，锁骨链的长度非常完美，搭配既美观，又柔美优雅。珍珠光泽度很高，能体现出女性的典雅内涵。💎
+这款项链是小众爆款，独特的设计风格，让您瞬间成为美丽的焦点，让人不得不赞叹一声，真是太美了！🎉
+这款锁骨链适合不同场合的穿搭，例如白衬衫，彰显出优雅、时尚、独特的个人风格。🌟
+如果您喜欢这款项链，就赶紧来关注我的主页，在那里我会为您推荐更多这样的好物。记得点击关注哦！💖</t>
+  </si>
+  <si>
     <t>s999纯银蝴蝶结珍珠项链女2023轻奢高级感小众爆款贝珠锁骨链</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银甜美水滴耳钩，珍珠与水钻的完美融合！太美啦🤩 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐又来推荐一个好看的耳饰啦！这款 s999纯银甜美水滴耳钩简直是太美啦😍
+水钻和珍珠的完美融合，让整个耳钩都显得非常有质感。水钻的闪闪耀眼瞬间提升了整个耳环的档次， 透着一股小清新的感觉。💎
+珍珠的奶白色，毫不夸张的说真的是太甜美了，简单的线条和水钻的点缀，让这款耳钩更加优雅大方。 🌸
+如果你也是喜欢国潮风的粉丝，这个耳饰绝对不容错过！尤其是搭配清爽的夏装，更能秒杀全场。 👗
+不用担心过多的重量，这个水滴耳钩非常轻盈，戴上后你会发现它根本不会感到沉重，不会给你带来任何不适。 🙌
+2023年这个款式就已经很火了，2023年最新款更是更是优雅了许多，相信每位小姐姐都一定会爱上它！❤️
+还有很多别的好物都在我的主页呦，记得关注哦！😉</t>
+  </si>
+  <si>
     <t>s999纯银甜美水滴耳钩耳环女2023年新款珍珠长款耳坠国潮耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银法式轻奢镂空球状耳环，与编织花纹完美结合！推荐👍 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐今天又来推荐一个超美的耳环啦！这款法式轻奢的耳环采用了S999纯银打造，镂空球状的设计，非常的精致。😍
+最特别的是这款耳环还采用了编织花纹的设计，将复古和时尚完美融合，看上去非常具有品质感。✨
+而且这款耳环非常适合气质女孩，穿上它感觉整个人都变得高级起来了呢！💃
+另外，这款耳环也很轻盈，佩戴起来非常舒适，不会给你带来任何负担。同时，它的细节处也处理得非常到位，完美地呈现出了法式轻奢的风格。💎
+如果你想要一款高颜值、高质量、轻盈度又高的耳环，这款法式轻奢耳环，一定会满足你的需求！👌
+别忘了关注我的主页，更多有趣、好看的物品等你来发掘哦！💖</t>
+  </si>
+  <si>
     <t>s999纯银法式轻奢镂空球状耳环女复古风气质编织花纹耳扣耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">超美欧美气质耳钉，2023年新款必备单品！💎 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐今天来推荐一款超美的耳钉，绝对是2023年最IN的单品！🔥 
+这款S999纯银欧美气质C型耳钉女非常有个性，采用了复古风设计，每个细节都非常到位，非常符合现代女性的审美观。👸
+钻石镶嵌在整个耳钉上，精美的手工，每一颗钻石都散发着闪亮的光芒，宛如星星点点，非常引人注目。✨
+耳钉的大小设计也非常得体，不会觉得过于夸张或低调，非常适合搭配不同的衣服，无论聚会还是约会都非常适合哦。😍
+这款耳钉是2023年最IN的单品之一，非常值得收入你的首饰盒，让你更时尚。🎉
+如果你和我一样追求时尚，这款耳钉你一定不能错过！记得关注我的主页，更多好物等你来挑选。💖</t>
+  </si>
+  <si>
     <t>s999纯银欧美气质C型耳钉女2023年新款潮耳环复古风满钻耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">s999足银珍珠耳钉女，一款两戴满钻耳环2023新款潮轻奢纯银耳饰！太美了😍 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐们，这里有一款新的耳饰要向你们推荐哦！今天要介绍的是这款s999足银珍珠耳钉女，简直太美了！😍
+珍珠造型的设计非常精美，而且这款耳钉是两戴满钻耳环，闪闪发亮的钻石让人忍不住为之惊叹。💎
+不仅如此，这款耳饰还是2023新款潮轻奢纯银耳饰，是时尚的代表，让人佩戴后与众不同，成为聚光灯下的焦点。🌟
+同样的搭配，因为这款珍珠耳饰的存在，都会变得不一样。个性十足，适合各种场合，珍珠与钻石的交相辉映，让人看了就爱不释手。👌
+配上经典的黑白调，这款耳饰更显得尤为精致奢华，不会过时，送给自己或者给亲友都非常合适。😘
+如果你也喜欢这款耳饰的话，就快来我的主页逛逛吧，还有更多的时尚单品等你来发现！记得关注我，不要错过每一款好物哦。💖</t>
+  </si>
+  <si>
     <t>s999足银珍珠耳钉女一款两戴满钻耳环2023新款潮轻奢纯银耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">精致的六福珠月亮项链，散发出冷淡风的气质美！😍 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+近期我又发现了一款非常美丽的项链，说出来你们可能不信，这款项链竟然是999纯银的！配上六颗六福珠，再搭配上月亮的设计，整个项链望上去就像是一个圆满的天空，非常有高级感！🌙
+冷淡风的颜色搭配又让这款项链散发出了一股独特的气质美，特别适合喜欢冷淡风的小仙女们哦~❄️
+锁骨链的长度适中，能凸显女性的锁骨线条，让你变得更加优雅迷人！👸
+这款项链的精致饰品细节设计非常到位，六福珠的大小也是大小递减排列，平衡美与好运美好寓意！🍀
+用另一只手使劲一拽，子芯经典的圆弧在光线的切割下释放出光芒，就像这个世界蕴藏着遇见我们之前的伏笔，也让人充满了期待和希望。😇
+喜欢这款项链的话，别忘了关注我的主页，还有更多好看的饰品和搭配哦！💕</t>
+  </si>
+  <si>
     <t>999纯银六福珠月亮项链女ins冷淡风气质锁骨链高级感精致饰品</t>
   </si>
   <si>
+    <t xml:space="preserve">国潮风元素融入，绝美锁骨链——赞👍 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐今天给大家推荐的是一款超美的S999纯银四叶草项链女和田玉葫芦吊坠锁骨链，它是一款很有文艺复古范儿的配饰呢！😘
+这款锁骨链是由S999纯银制成，与一颗精致的和田玉和一个葫芦吊坠相结合，肆意摆弄间，像是把一个折射着炫丽光芒的梦境穿在了颈间，十分高级。💎
+在链的底部加上四叶草元素，简单大气却十分吸睛，增添了几分俏皮。🍀
+这款锁骨链可以轻松的与各种单品进行搭配，文艺复古的款式更是成为潮流趋势的代表，还可以展示您个性魅力。🌟
+即使是在紧绷的职员装中，这款锁骨链也可以万无一失地穿出透彻、纯熟的感觉，是居家和出门的精致之选。👌
+如果你还在找寻一款既漂亮又有设计感的锁骨链，就赶快点击我的头像来看看吧，更多好物等你来挑选哦！
+不要忘记关注我的号，我们在一起发现更多的美好！💖</t>
+  </si>
+  <si>
     <t>s999纯银四叶草项链女和田玉葫芦吊坠锁骨链文艺复古纳福配饰</t>
   </si>
   <si>
+    <t>法式优雅，复古花环，2023年新款！这款珍珠耳钉太美了🤩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐们，今天要向大家推荐一款超美的珍珠耳钉耳环！
+这款耳环是由S999纯银制成，镶着一颗精美的珍珠，仿佛一朵盛开的花，非常优雅、精致。😍
+复古花环的设计，让整个耳钉的造型更加时尚、独特。加上2023年新款的元素融入，完美地展现出法式风情和优雅气息。💫
+佩戴起来非常舒适，重量也刚刚好，不会束缚你的耳朵。😎
+搭配简单的衣服，就可以让你整个人更有气质，无论是上班还是约会都非常适合。💋
+如果你和我一样追求独特、时尚的单品，就不要错过这款美丽的耳钉了！
+记得关注我的主页，分享更多好物~🌟</t>
+  </si>
+  <si>
     <t>s999纯银法式珍珠耳钉女2023年新款复古花环耳坠优雅耳环耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银花卉锆石吊坠项链女方糖祖母绿锁骨链高级感流行饰品，乃我心中求之不得的装备！🌸 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小红书上有很多好看的饰品，但是当我看到这个锁骨链时，我立刻被深深吸引了！🔥
+这个项链有一个精致的小花朵吊坠，镶嵌着一颗糖祖母绿色的锆石，非常美丽，让我看见后就瞬间爱上了。💖
+再加上高质量的 S999 纯银链子，不仅看起来很舒适，摸起来也很柔软。像是为我的颈项量身定做。🎀
+除了外部的材质，更令人惊喜的是该收纳盒和外包装精美高端，约很容易被破坏。🎁
+这款锁骨链非常适合各种场合的佩戴，特别是出席重要的场合时！😍
+作为一个经常在化妆品和饰品上花钱的女孩，我可以大胆地说：这个锁骨链是你每日造型的必备单品之一。👸
+如果你跟我一样钟爱精致饰品，那么推荐这款锁骨链是必须的。我建议你们放进购物清单里。💄
+欢迎关注我的个人主页，有更多美妙的饰品和化妆品等你来探索！💕</t>
+  </si>
+  <si>
     <t>s999纯银花卉锆石吊坠项链女方糖祖母绿锁骨链高级感流行饰品</t>
   </si>
   <si>
+    <t xml:space="preserve">小清新气质，这款简约珍珠耳环让你更优雅！✨ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小仙女们，今天给大家分享一下我最近入手的一款新款珍珠耳环，非常的美丽！😍
+这款珍珠耳环的设计非常的简约，只有一颗猫眼石和一颗优雅的小珍珠，但是简单的设计却体现出了女性优雅的气质。👸
+使用的材质是s999纯银，不仅有着好的延展性，还不会让你过敏，完美的保护了你的耳朵。🥰
+整个耳环的长度非常的有型，猫眼石在耳朵处有着非常不错的装饰效果，吸引了众多路人的目光。👀
+同时这款耳环非常的适合日常穿搭，不管是上班还是约会，都是非常的合适。搭配深色系的衣服也不会退色。💃
+不得不提的是，这款珍珠耳环还是2023年的新品，大家赶紧入手吧！✌️
+记得关注我的主页，更多好看的饰品等你一起分享哦！👉</t>
+  </si>
+  <si>
     <t>s999纯银猫眼石长款耳钩简约珍珠耳环女2023年新款气质耳坠</t>
   </si>
   <si>
+    <t xml:space="preserve">小众高级感！s999纯银郁金香耳钉耳环女2023年新款潮花朵耳饰品好评👍 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小仙女们好啊，今天发现一款超美的新款耳饰，非常高级有质感，赶紧分享给大家！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>👩‍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>❤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">️‍👩
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这款耳钉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>耳环采用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纯银材质，镶嵌着精致的郁金香花瓣，花心衬托着一颗小小的钻石，整个耳饰非常精致，细节也打磨得非常好，完美呈现出了郁金香的优雅与高贵感。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">🌷
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特别是新款潮花朵的设计元素，将现代与传统相结合，非常时尚高端。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">🌟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>而且这款耳钉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>耳环不仅适合日常佩戴，还非常适合各种场合，如婚庆、晚宴等，让你成为气场瞬间提升的焦点！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">🎉
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这个小众高级的感觉真的是非常适合现在的年轻女性，如果你也喜欢，就快快入手吧！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">💖
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记得关注我的主页，更多好物等你来挑选哦！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>😘</t>
+    </r>
+  </si>
+  <si>
     <t>s999纯银郁金香耳钉耳环女小众高级感2023年新款潮花朵耳饰品</t>
   </si>
   <si>
+    <t xml:space="preserve">999足银十字架耳环，小众个性耳钉推荐！✨ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+喜欢多变风格的小姐姐们注意啦，今天我要向大家推荐一款超棒的999足银十字架耳环！😍
+这款耳环设计独特，别具一格，是属于小众个性路线的耳钉，很适合追求独立风的人哦。十字架造型看起来简单大方，却又流露出优雅古典的气质。👍
+更重要的是，这款耳环是由999足银制成，非常耐磨且不易褪色，长期佩戴也无需担心对皮肤的刺激。比起其他合金材质的商品，更是品质过关。💍
+冷门的设计风格让这款耳环成为了一个小众圈的美好代表，搭配白色小衫，或者魔幻童话风格的蓬蓬裙，都很适合哦。💫
+对于圆脸的小姐姐们，这种线条感强的耳环会很好的刻画出轮廓，很是显脸小。特别适合夏天这个需要轻松、精致的季节。😘
+如果你和我一样喜欢小众风格，就不要错过这款耳环了！
+记得关注我的主页，更多有趣产品分享等你来看哦！💖</t>
+  </si>
+  <si>
     <t>999足银十字架耳环2023新款小众个性耳钉ins耳钉气质圆脸耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">🍃s999纯银银杏叶耳钉女森系迷你树叶耳环小清新学生耳钩耳饰品，清新自然的气息，萌化你的心💕 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐今天给大家推荐一款超萌的银杏叶耳钉！这款耳钉由S999纯银材质制成，形状仿佛是小树叶，非常的小清新，清新自然的气息，看了就让人心情愉悦！🌲
+它的设计非常的简约，搭配任何服饰都不会太过花哨，而且也可以营造出清新森系的感觉。非常适合那些喜欢小清新，文艺风范的小姐姐们。🌸
+这款银杏叶耳钉尺寸大小正合适，自然又不太起眼，根本不会显得特别嚣张。佩戴起来十分舒适，不会发痒，也不会掉落，非常实用！🍂
+即使是搭配简单的T恤，牛仔裤，也能够增加整体的审美感。而且还很适合学生小姐姐哦，佩戴它会让你看起来更加可爱、俏皮哦！🎉
+我非常推荐这款银杏叶耳钉，它是一款很好看，很有个性的耳饰品，而且它的材质非常好，不易故障，让你从容面对每一天！✨
+记得关注我的主页，更多好物等你来挑选哦！💖</t>
+  </si>
+  <si>
     <t>s999纯银银杏叶耳钉女森系迷你树叶耳环小清新学生耳钩耳饰品</t>
   </si>
   <si>
+    <t xml:space="preserve">超美国风s999纯银葫芦吊坠，中国风和田玉福禄锁骨链！必买🛍 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小仙女们，今天给大家推荐一款国风小众饰品，让你摆脱平凡无奇的颜值束缚，成为最靓的仙女！🧚‍♀️
+这款项链由精美的s999纯银葫芦吊坠和采自新疆和田玉的福禄元素锁骨链组成，别具一格，十分吸睛。🔮
+整个项链都是手工制作，每一件都是独一无二的，所以每个小细节都特别到位。别看是小小的吊坠，但是细节很到位，让人一眼就能看出这款项链不凡之处。👑
+这款项链是中国风十足的设计，古早味儿十足，时尚又小众，是千万女生的必备单品哦～😍
+如果你和我一样爱国风，爱和田玉，那么这款项链一定是你的最爱！ 如果有机会搭配上中国风的服装，那就更加完美了！🥳
+不过，这个小众好物的数量有限，所以想要的小仙女们可要抓紧哦！记得关注我的主页，更多美丽好物等你来发现。💕</t>
+  </si>
+  <si>
     <t>s999纯银葫芦吊坠项链女中国风和田玉福禄锁骨链复古小众饰品</t>
   </si>
   <si>
+    <t xml:space="preserve">纯银莫比乌斯环戒指，情侣款七夕礼物送女友必备！💍 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐今天给大家推荐一款超美的情侣戒指——纯银莫比乌斯环戒指！这款戒指的名字源自于德国数学家莫比乌斯，它是将一条带子扭转一周后接成一个环的形状，深寓爱情之意。🌈
+这款戒指是由S999纯银制成，柔软的材质能够根据手指的形状自如变形，简洁而不失精致，给人流畅、简单、神秘的感觉。💕
+它不仅是一个完美的情侣戒指，还非常适合作为七夕礼物送给女友，表达你心中的真挚情感。🎁
+借助它独特的设计，你们的感情也将变得更为牢固，就像莫比乌斯一样没有尽头。💖
+无论是作为日常佩戴还是特别场合的用途，这款戒指都能尽显你的高品位和时尚感。👍
+如果你和你的Ta都是爱情至上的热情派，那这款纯银莫比乌斯环戒指绝对是你们情侣装里的最佳选择！记得点赞哦！😊</t>
+  </si>
+  <si>
     <t>s999纯银莫比乌斯环戒指情侣对戒情侣款七夕情人节礼物送女友</t>
   </si>
   <si>
+    <t xml:space="preserve">可爱小熊耳钉，让你变身韩版小清新！😻 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>哇，这款小熊耳钉太可爱了吧，它就像是一个小宠物，陪伴着你一起生活。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">💕
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这对耳钉是由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纯银制成，上面嵌满了小钻石，它就像是搭配你打造了一份纯真可爱的气息。❤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">️
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小熊的造型设计非常逼真，小巧玲珑，不会给人感觉过于夸张，相反还非常的雅致。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">💎
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>而且它的耳钉特别的柔软易扣，花式搭配非常方便，随你变换不同的风格。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">🌈
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果你对于韩版小清新、卡通、动物元素有所喜欢，这款耳钉非常适合你哦！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">👍
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>它更加青春、可爱，让你走在潮流的前沿。嘿嘿，是不是很想去品尝一下呢？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">😘
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记得立即点击关注，让我和你分享更多的时尚单品，看看有哪些是你喜欢的呢！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>💖</t>
+    </r>
+  </si>
+  <si>
     <t>s999纯银爱心小熊耳钉女韩版小清新动物耳环可爱卡通镶钻耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">❤️s999纯银玫瑰花珍珠耳钉女❤️法式浪漫花朵耳环轻奢甜美水滴耳坠 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小姐姐来推荐一款超美的耳钉啦！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">😍
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这款耳钉采用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纯银，配以精美的玫瑰花设计，再搭配上闪闪发光的珍珠，甜美浪漫，有些法式的感觉。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">🌹
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每一个耳坠都带有水滴形状的切割，让珍珠更亮眼，更有层次感。黑白相间的别致设计，精致的雕琢，让耳钉更为高贵典雅。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">👑
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这款耳钉特别适合搭配浪漫可爱的女孩子，还有优雅的法国小清新气息，也是超好的装饰出游、约会、派对等场合的贴心小物。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">🎉
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不仅如此，这款耳钉的质地保障和设计动人，不会出现过敏等问题，摆脱你的烦恼，带来更清爽，高雅的体验。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">😎
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果你追求独特、时尚的单品，就不要错过这款漂亮的耳钉了！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记得关注我的主页，更多好物等你来挑选。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>🛍️</t>
+    </r>
+  </si>
+  <si>
     <t>s999纯银玫瑰花珍珠耳钉女法式浪漫花朵耳环轻奢甜美水滴耳坠</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银水滴耳钉，让你轻松get高级感的百搭耳饰！👂 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐又来给大家推荐一款好看的耳饰啦，这次介绍的是一款s999纯银水滴耳钉。😍
+它的设计极其简洁大气，呈流线型，镶嵌着一颗小小的水滴形状的水晶，温润亮眼。✨
+每个细节的浮雕与抛光都十分到位，彰显高级感，时尚又不失优雅。🌟
+因为它的色调比较简单，所以百搭性极高，不论什么风格的衣服都能跟它搭配，并且不会显得过于搭配。👌
+这款耳钉重量适中，而且不会拉长耳朵的形状，舒适度十分的好，即使戴上一整天也不会感到不适。👍
+总之，这款耳钉无论是颜色还是款式，都是十分适合每一个女生的，这是一款不容错过的耳饰。💎
+如果您也想增添高级感和时尚感，就一定要关注我啊，让我们一起变美丽！💖</t>
+  </si>
+  <si>
     <t>s999纯银水滴耳钉女极简椭圆个性豆豆耳环轻奢高级感百搭耳饰</t>
   </si>
   <si>
+    <r>
+      <t>超美星星耳钉，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年必备流行单品！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">🌟 </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐们，你们是否已经准备好跟随2023年的潮流，展现出最IN的时尚风格呢？今天，我要为你们推荐这款超美的s999纯银星星耳钉，它完美地融合了星星和钻石元素，让你散发出无与伦比的优雅气质。😍
+这款星星耳钉采用的是银质材料，无需担心过敏的问题，真正做到了安心佩戴。👀
+设计上，十分精致，追逐潮流的你不会错过。而且星星耳钉是一体式设计，更加盘绕在耳朵上的错觉，更加温柔。💫
+这款耳钉还有排式耳环，是最新的流行款式，搭配球型扣耳环，让你的耳朵更加有型。一边戴着星星耳钉，一边戴着闪钻耳环，更是气场十足，散发着魅力。😉
+这款星星耳钉不仅适合日常佩戴，还可以搭配晚礼服等正式场合，让你更加出众。绝对是你最值得购买的流行单品之一！✨
+最后，提醒大家记得关注我的主页，每天都会有更多时尚单品推荐哦！💕</t>
+  </si>
+  <si>
     <t>s999纯银星星耳钉排式耳环女2023年新款一体式满天星闪钻耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">S999纯银海星贝壳耳钉女，冷淡风ins小众耳环！2023必入手的新款潮耳饰🐚 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小姐姐又来啦！今天要给大家推荐一款超美的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> S999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纯银海星贝壳耳钉女！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">👩‍🦰
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这款耳钉采用了独特的海洋元素设计，海星造型的耳钉和贝壳的装饰是它的最大特点，如果你定位的是冷淡风或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小众风格，这款耳钉会是一款非常适合你的单品！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">🌊
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据设计师的意见，这款耳钉是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年最新推出的款式之一，不同于市面上一般的设计，它更多的是通过细节的处理去体现其设计理念，而这也是我为什么选择它的原因之一。✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这款耳钉的主材质是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> S999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纯银，柔和光滑的质感会让人感到十分舒适，而这也让它成为了很多人心中最喜欢的耳钉单品之一。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">💫
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>即使经过时间的洗礼，也不必担心它们的颜色受到影响，而这也让它成为了我选择这款耳钉的重要原因之一。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">😃
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总的来说，这款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> S999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纯银海星贝壳耳钉女是一款非常值得购买的耳饰商品，如果你想要拥有一款比较小众且时尚的耳环，它绝对是不可错过的单品！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">😍
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记得关注我的主页，更多好物等你来挑选哦。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>💕</t>
+    </r>
+  </si>
+  <si>
     <t>s999纯银海星贝壳耳钉女冷淡风ins小众耳环2023年新款潮耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">轻奢感十足！s999纯银扭曲镶钻珍珠耳钉，时尚百搭又高级感！👀 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐又来跟大家分享一款超美的耳环啦！这次要向大家介绍的是这款 s999 纯银扭曲镶钻珍珠耳钉。这款耳环有着非常高的时尚指数，又不失优雅和高级感。🌟
+设计师非常用心，耳环的细节处理非常到位。整个耳钉又精巧又惊艳，完美的扭曲设计，勾勒出变幻多样的美感；璀璨的钻石的闪烁和精美的珍珠让整个耳钉仿若星际中的一颗新星。✨
+这款耳钉采用 S999 纯银质地，从材质到细节处的处理都非常重视，不仅仅是一件珠宝，也是一件艺术品。😲
+无论是日常穿搭还是出席重要场合，这款耳环都非常百搭，轻奢的设计感穿戴起来非常舒适，非常时尚，让人倍感自信。🥰
+如果你像我一样喜欢这种轻奢风格的耳环，那就不要错过这款 s999 纯银扭曲镶钻珍珠耳钉了，我保证你不会失望。🤗
+记得点击关注我的主页，更多精美好物等你来发现哦！💕</t>
+  </si>
+  <si>
     <t>s999纯银扭曲镶钻珍珠耳钉女高级感轻奢耳环时尚百搭耳坠耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">幸运草在身边，好运不停转！s999足银幸运草项链女，今年的小众设计！😍 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐最近上了一堂时尚的课程，其中分享了许多有趣的饰品搭配，今天就来为大家推荐一款非常特别的项链——幸运草项链！🍀
+这款项链采用s999纯足银制作，镶嵌着一颗晶莹剔透的四叶草，四叶草背后都饰有一颗小小的钻石，精致可爱，让人忍不住心动。🌟
+锁骨链长度刚刚好，佩戴起来很自然，不会显得过于招摇。👯‍♀️
+给自己佩戴当然可以，也可以送给闺蜜或者女友，DIY包装成一份温情满满的礼物，表达对Ta的祝福与爱意。💗
+这款幸运草项链虽然在市场上算是小众设计，但是拥有超高的颜值和个性，穿搭时时尚度MAX。👑
+2023年就要来了，想要新的一年里好运连连，不妨尝试一下这款幸运草项链，送给自己或者Ta！🎁
+如果喜欢我的推荐，记得关注我的主页，会继续分享更多美好的饰品和生活话题哦！😘</t>
+  </si>
+  <si>
     <t>s999足银幸运草项链女2023年旋转四叶草锁骨链小众设计送女友</t>
   </si>
   <si>
+    <t xml:space="preserve">女人必备！s999纯银恋心四叶草项链，饰品最佳选择！💍 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小姐姐今天要给大家推荐一款非常可爱的项链</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——s999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纯银恋心四叶草项链。它外形像一个四叶草，四片绿色的叶子和一个洋溢着爱和温馨的心型锁骨珠相连，非常精致。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">😻
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这款项链不仅漂亮，而且材质优良，选用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纯银，让人放心。如果你搭配上一条白色蕾丝裙，再加上一双高跟鞋，一定会让你的美丽值大涨！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">👗
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>此外，这款项链还可以拆下来成为单独的珍珠项链，可以根据不同的场合穿戴，非常实用。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">😉
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再加上那份小众的气息，你绝对可以成为人群中最具特色的那个。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">💃
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总之，无论是自己佩戴还是作为礼物送人，都是绝佳的选择。快去我的主页看看吧，还有更多好物等着你哦！❤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>️</t>
+    </r>
+  </si>
+  <si>
     <t>s999纯银恋心四叶草项链女气质可拆珍珠轻奢小众锁骨链饰品</t>
   </si>
   <si>
+    <t xml:space="preserve">小众设计感s999纯银兔耳朵耳钉，本命年必备！2023新款，快来抢购吧🎉 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐们，我的本命年就要到了，最近正在找一款好看的兔耳朵耳钉来祭奠我的年龄。今天给大家推荐一款我最近买的s999纯银兔耳朵耳钉，设计感超棒，给我的本命年增添了不少活力呢！🐰
+这款耳钉造型可爱，非常适合像我这样的孩子气小姐姐，绝对是今年的潮流！😍银质设计，纯白色和闪亮度刚刚好，非常抢眼。👀
+通常我搭配它的时候，就会选择像超短裙一样的小清新风格的衣服，这样整体风格就更加可爱百搭，简直就是小姐姐们的风格代表啊！💃
+当然，这款耳钉的设计颇具创意，所以不仅适合本命年使用，还可以作为日常装扮。👍不用担心被嫌弃太过小清新，它的质地和卡扣都很棒，牢固又不容易变形。
+让我们来给自己的日常穿搭增添一点点生辰红吧！记得在我的主页抢购哦，这款耳钉极受欢迎，数量有限，不要错过啦！💕</t>
+  </si>
+  <si>
     <t>s999纯银兔耳朵耳钉女小众设计感养耳洞本命年耳环2023年新款</t>
   </si>
   <si>
+    <t>✨ 四叶草项链女必备！s999纯银+锆石完美结合，让你轻松变身时尚女王！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐又来分享美物啦！这款s999纯银锆石锁骨链是不是很美呢？特别是那个闪闪发亮的四叶草，简直就是做运动时的好运物！🍀
+这款项链在2023年全新上市，轻奢感十足，时尚得不得了！簇新的外观，可以配搭各种装扮，轻松走得高级路线。👑
+锁骨链的长度设计很巧妙，即使低胸的衣服也不显得过于暴露，且非常符合气质女孩的需求。⭐
+这款四叶草项链女士非常适合日常佩戴，尤其是在休闲约会、聚会等场合，散发的美丽光芒瞬间吸引所有人的眼球！👀
+口碑和评价都很出色，喜欢的小伙伴们不妨购买一下试试，相信你也会深深爱上这款超级美的项链！💕
+想要知道更多时尚美物，别忘了关注我的主页哦！我们一起开启美好的购物之旅！💃</t>
+  </si>
+  <si>
     <t>s999纯银四叶草项链女2023年新款幸运草颈链轻奢感锆石锁骨链</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银珍珠耳坠耳钉女气质时尚耳环，让你瞬间成为时尚女王！😍 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐最近又淘到了一款超美的耳环啦，这次的主角是s999纯银珍珠耳坠耳钉！😘
+这款耳环采用了高档的纯银材质，搭配精致的珍珠设计，清新优雅，让人看了就觉得一种高级感贯穿全身。💍
+并且尺寸大小的搭配也非常精准，既不会太大出戴着别扭，也不会太小让人看不到，刚好合适。👌
+不论是平时上班、出席婚礼等各种场合都能够佩戴，不同的穿搭风格之下更是深受时尚精英们的青睐。💃
+每个女孩都想成为时尚女王，这款s999纯银珍珠耳坠耳钉不仅能够提升你的气质，还能让你在人群中更加出众，让人眼前一亮。🌟
+最后送上福利，关注我的主页，让你成为购物达人！💖</t>
+  </si>
+  <si>
     <t>s999纯银珍珠耳坠耳钉女气质时尚耳环2023年新款高级感耳饰品</t>
   </si>
   <si>
+    <t xml:space="preserve">两戴珍珠耳钉女必备，一看就是有设计感的小众耳环！😍 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐来推荐一款 999纯银 耳环啦！这款耳环设计得非常有特色，是一款两戴式的，分别是珍珠和锆石，非常适合小姐姐们日常搭配。💎
+这款耳环的设计以简约为主，锆石和珍珠组合的效果也很棒！让你不管是走路、转头，还是低头看书，都各有风情。🌟
+而且这款耳环还是后挂式的，非常不会掉落，方便日常佩戴。而且在珠子上还有小小的设计，不管是白天还是晚上，都能穿出不同的风格。👍
+而且这款耳环是小众款式，戴出去肯定会有一种与众不同的感觉，还会吸引一大片粉丝哦！😘
+如果小姐姐们想要寻找一款独特的耳环，不妨考虑这款999纯银的两戴珍珠锆石耳环吧！
+别忘了关注我的主页，更多小众设计感好物等你来发现哦！💖</t>
+  </si>
+  <si>
     <t>999纯银一款两戴珍珠耳钉女小众设计感耳环ins后挂式锆石耳饰</t>
   </si>
   <si>
+    <t>s999纯银枝叶小花环耳钉女轻奢闪钻花朵耳环养耳洞甜美耳饰品，气质加分！✨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐，又到了推荐耳环的时间啦！今天给大家带来一款超美的 s999纯银耳环。这款枝叶小花环耳钉，简直是女孩的专属甜品。🍬
+它不仅采用了优质的s999纯银作为耳针的材质，更是点缀了闪闪发亮的钻石花朵，是你耳朵上的一道养眼的风景线。💎
+这款耳环非常轻盈，戴上去几乎感觉不到重量，所以即使戴上一整天也不会有任何的不适感。而且细节处理得非常到位，花朵和枝叶的质感也很真实，带给人一种大自然的感觉。🍃
+它还非常适合各种场合，无论是日常上班还是晚宴party，都可以使用。绝对是增添气质和美丽的不二选择。👍
+不管你是选择戴在单耳还是双耳，这款花环耳钉都可以轻松地带出甜美可爱的感觉。✨
+如果你也像我一样追求甜美又属性的耳环，不妨关注我的主页，更多好物等你来享受。💖</t>
+  </si>
+  <si>
     <t>s999纯银枝叶小花环耳钉女轻奢闪钻花朵耳环养耳洞甜美耳饰品</t>
   </si>
   <si>
+    <t xml:space="preserve">999纯银时尚镶钻福袋项链女新款百搭美金$钱袋锁骨链招财配饰，一款既有美观度又有吉祥寓意的小首饰！✨ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐今天要为大家推荐一款非常有意义的项链——999纯银镶钻福袋链。这款链子的吊坠是一个小小的美金$钱袋，而且还有几颗闪闪发光的钻石点缀，十分亮眼！💍
+福袋和钱袋在国内有着非常强的财富和好运寓意，佩戴这款项链可以为你带来好运和财富哦。👏
+饰品中的小巧心思，让它不论是搭配日常休闲装、上班装还是晚装，都非常百搭，甚至可以当做拍照的时髦利器哦！😉
+特别要提醒一下各位，这款项链是999纯银制作，质地优异，十分耐用，不易变色，保持光亮度。❤️
+总之，这款项链不仅款式美观，而且背后蕴含着福气，不论是作为自己佩戴还是送给朋友，都非常有意义并且实用。🤩
+如果想要了解更多好物和时尚资讯，记得关注我的主页，让我们一起来发现生活中的美好吧！💕</t>
+  </si>
+  <si>
     <t>999纯银时尚镶钻福袋项链女新款百搭美金$钱袋锁骨链招财配饰</t>
   </si>
   <si>
+    <t xml:space="preserve">【法式滴釉，复古时尚！】s999足银耳环强烈推荐！💍 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小姐姐今天给大家带来一款极具法式滴釉风情的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>足银耳环！攻略来了，赶紧收下吧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">~😎
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这款耳环采用银镀金工艺，色泽艳丽持久。更别提一颗水滴状的深蓝色滴釉，带出一丝古典的雅致。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">🌟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>它既有轻奢高级的纯银耳钉框架，又有精美的滴釉，即使是搭配日常服饰，也能让你瞬间变身高级百搭女神！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">👠
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同时，这款耳环非常轻便，长时间佩戴也不会感到不适哦！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">👌
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果你正在寻找一份送给他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>她的礼物，这款足银复古耳环也算是一个不错的选择啦！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">🎁
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总的来说，这款耳环的设计十分精致，风格复古但不失现代感。无论是出席各个重要场合还是日常搭配，都非常适合哦！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">💋
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>别忘了关注我的主页，更多好物等着你来发现哦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>❤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>️</t>
+    </r>
+  </si>
+  <si>
     <t>s999足银复古法式滴釉耳钉女轻奢高级感纯银耳环2023新款礼物</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银爱心耳钉女，2023年新款心形珍珠耳环是下一个爆款！快来预定🔥 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐又来推荐一款超赞的耳饰啦！这次我们要介绍的是s999纯银爱心耳钉女，2023年新款心形珍珠耳环。这款耳环绝对是下一个爆款！😍
+耳钉是爱心造型的设计，非常精致，而且非常符合女孩子们的心理期望。同时它也镶嵌了精致的珍珠，彰显出品牌精致的工艺和品质审美。💕
+这款耳环还有一点独特的地方就是带有诱人的亮光效果，这让珍珠在不同角度都闪烁出不同的光芒，让整个耳环更加美丽动人。🌟
+无论是约会、上班还是在家，这款耳环都是你的不二选择，简约而时尚，散发着一种温柔的气息。👌
+如果你想成为时尚的焦点，就赶紧购买这款超赞的耳环吧！而且相信我，这个夏天，戴上这款耳环一定会让所有人都对你的时尚品位和个人魅力刮目相看！🔥
+别忘了关注我的主页，更多好物等你来挑选哦！💫</t>
+  </si>
+  <si>
     <t>s999纯银爱心耳钉女2023年新款心形珍珠耳环</t>
   </si>
   <si>
+    <t xml:space="preserve">超值必备！s999纯银猫眼石竹节手链女，2023年新款手镯手饰，生日礼物送女友不二之选！🎁 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐今天给大家推荐一款不可错过的手链，这款s999纯银猫眼石竹节手链女，简直是超值必备！👍
+手链采用优质s999纯银打造，表面经过了精细的抛光和处理，充满光泽，让人爱不释手。突出了手链的时尚与高贵感。😍
+竹节设计，线条简洁，却不失优雅，让你在瞬间提升气质。与猫眼石一同呈现的手链，柔和的绿光在日光下闪烁，绝对让人一眼为之倾心。💝
+适合各种场合，无论是上班、约会、晚宴，甚至是日常穿着，都非常适合。👌
+不仅是你的好伴侣，也是送给女友的绝佳选择，精致的礼盒包装更彰显你的真挚心意，是2023年最佳的生日礼物哦！🎂
+如果你与我一样钟情于手链，就赶紧来一起入手吧！记得关注我的主页，了解更多新款手链！💕</t>
+  </si>
+  <si>
     <t>s999纯银猫眼石竹节手链女2023年新款手镯手饰生日礼物送女友</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银冷淡风耳钉女猪鼻子方糖耳坠新款百搭耳环潮流耳饰品，精致到令人惊艳的设计！👀 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐又来推荐好物啦！今天要跟大家分享的是一款 s999纯银冷淡风耳钉女猪鼻子方糖耳坠新款百搭耳环潮流耳饰品，超级精致到令人惊艳！💫
+这款耳钉由 s999 纯银打造，让人看起来很是耳目一新，独一无二的设计，别具匠心！✨
+在这款耳钉上，设计师特别加入了一个可爱的小猪鼻子，大方得体。耳钉附带的方糖耳坠，看起来更加时尚百搭，适合各种穿搭风格。🐽
+冷淡风的设计非常新颖，在款式的搭配上没有任何繁琐的雕饰，看起来非常有档次，更彰显了现代女性的独立、自信态度。😎
+不仅随时随地可以戴，而且还非常百搭。穿上它，瞬间点亮你的整个造型，成为焦点，非常适合潮人妹纸们哦！👸
+如果你也喜欢这款 s999纯银冷淡风耳钉女猪鼻子方糖耳坠新款百搭耳环潮流耳饰品，一定要赶快行动哦！
+记得关注我的主页，更多好物等你来挑选。让我们一起玩转潮流，找寻时尚乐趣吧！💕</t>
+  </si>
+  <si>
     <t>s999纯银冷淡风耳钉女猪鼻子方糖耳坠新款百搭耳环潮流耳饰品</t>
   </si>
   <si>
+    <t>「春夏必备！设计感十足的s999足银小裙摆项链！」🌸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+近日，小姐姐收到了一款非常美丽的s999足银小裙摆项链，简直太美了，正是春夏装扮的必备单品！💕
+这款锁骨链采用了足银材质，与普通纯银相比更具有光泽感和耐久性，不容易氧化老化，长久佩戴也不会掉漆或褪色，细节处理也很到位，更加突显高级感。✨
+最吸引人的要属小裙摆设计，灵动可爱，如同一抹亮色搭配在颈间，瞬间改善整个人的气质，无时无刻都散发着自信与美丽。💃
+搭配春夏装扮也十分得宜，无论是白色连衣裙还是短袖T恤，都能产生不同的惊艳效果。😍
+当然，这也是一份非常适合情人节的礼物，送给自己的Ta，也能为爱情披上一份浪漫色彩，留住美好回忆。❤️
+如果你也想要购买这款小裙摆项链，那就快来我的主页逛逛吧，还有更多精致好物等待你的发现~💖</t>
+  </si>
+  <si>
     <t>s999足银小裙摆项链女纯银春夏锁骨链设计感轻奢情人节礼物</t>
   </si>
   <si>
+    <t xml:space="preserve">麻花纹路的s999纯银耳环，时尚百搭，快来看看吧！👀 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐给大家带来了一款极具气质的耳环，这款 s999纯银麻花耳环，因为它极简的设计赢得了很多人的喜爱。😍
+麻花纹路的设计搭配亮光处理，使整个耳环更加柔和，透露出一股独特而不张扬的气息。😉
+这种极简轻盈的设计，使得这个耳环非常百搭，可以随意搭配服饰和场合。👗
+不仅如此，这款耳环还是学生党的好选择，不需要过于浮夸的装饰，就能展现出属于自己的魅力。✨
+这款耳环真的是属于气质女孩们的最爱，它的设计非常符合现代人的审美，大气简单但是不失精致。👌
+如果你也想成为优雅而别致的女孩，这款耳环绝对非常值得入手！
+同时记得关注我的主页，更多时尚单品等你来挑选。💖</t>
+  </si>
+  <si>
     <t>s999纯银麻花耳环时尚耳扣女极简纽纹耳圈气质百搭学生耳饰品</t>
   </si>
   <si>
+    <t xml:space="preserve">夏季的樱花耳饰，让你更加清新甜美！🌸 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐，最近我发现了一种非常清新甜美的耳饰，粉色樱花+珍珠，简直是夏季必备！💖
+这款耳钉是由s999纯银制成，镶着一颗精致的珍珠和几朵可爱的粉色樱花，看上去非常的小清新。😍
+樱花的图案是用轻奢气质滴胶做成的，非常的有层次感和质感，每一朵樱花的细节也都处理得很到位。👍
+仔细一看你还能发现，花芯处的红点更让整个小耳钉增加了几分活力和可爱哦！🌟
+不知道大家有没有发现，这款耳饰还有一个特点就是轻，几乎没有负担，非常适合夏季配戴。😘
+搭配清凉夏季的衣服，肯定非常的适宜，一件小清新的碎花裙就能够营造少女心十足的气息。👗
+如果你喜欢这个耳饰，那就不妨快去我的账号看看吧，还有更多好物等你来挖掘！💎</t>
+  </si>
+  <si>
     <t>s999纯银粉色樱花耳钉女小清新甜美珍珠耳坠轻奢气质滴胶耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">S999纯银流苏耳线，让你散发女性魅力！ 🌸 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐又来给大家推荐美美的耳饰啦，这次给大家带来一款简约又时尚的流苏耳线。✨
+这款流苏耳线由S999纯银材质制成，柔韧性好，不易变形，外加优雅的圆珠装饰，别具一格。💍
+与其他耳环不同，流苏耳线可以自由地摆动，非常灵动。而且圆珠与脸颊间的距离也恰到好处，让脸显得更小巧精致。👧
+另外，它的简约设计也特别适合搭配各种不同风格的衣服, 既不会显得过于造作，并且会让整体的气质更上一层楼。😍
+总之，穿上这款流苏耳线，不管是平时约会还是聚会，都会让你散发出女性优雅魅力的光芒。✨
+千万不要错过这个简约又时尚的耳环！记得关注我的主页，更多好物等你来挑选哦~ 💗</t>
+  </si>
+  <si>
     <t>S999纯银流苏耳线女气质轻奢耳环圆脸显瘦高级感耳钉简约耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">2023新潮流来袭！s999纯银蝴蝶耳线，萌趣又华丽，不来一只玩玩吗？✨ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐今天给大家带来的是一款2023年新款潮纯银耳饰——s999足银蝴蝶耳线，哇塞真的是太可爱了！🦋
+这款蝴蝶耳线是由s999纯银制成，完全没有任何镀层和添加剂，不仅安全无害还更加环保！耳线本身长短发挥着美妙的对比，深浅相宜的银色光影让整只耳环更显鲜亮。😍
+别看这个蝴蝶小巧玲珑，却能够优雅地垂挂于耳廓之上，瞬间让你变得生动可爱。🎁
+它是一款非常适合春夏季节佩戴的潮流耳饰，戴上它和风轻轻拂过你的面庞，感觉真的是美滋滋！🌸
+不知道大家有没有“养耳洞”的习惯，为了保证您能舒适、愉悦地佩戴s999足银蝴蝶耳线，建议使用消毒棉签、酒精消毒，以最大程度避免炎症等问题。💊
+简直是缔造完美春夏装扮的必备神器呀！你心动了吗？来一只蝴蝶，给你的耳朵带来春天的气息吧！😘
+不要忘记关注我的号，分享更多潮流好物哦！💖</t>
+  </si>
+  <si>
     <t>s999足银蝴蝶耳线女2023年新款潮纯银养耳洞耳钉春夏少女耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银流苏蝴蝶项链，女性时尚搭配不可少的高级设计款！👑 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+嗨，小姐姐今天来给大家推荐一款女性时尚搭配不可少的高级设计款——s999纯银流苏蝴蝶项链！😍
+这款项链是由s999纯银材质制成，镶有一只精致的蝴蝶，蝴蝶的翅膀上挂有一排闪闪发光的流苏，非常有女性韵味。🦋
+整个项链长度适中，可轻松搭配各种衣服，尤其是高领衣服和衬衫，瞬间提升整个人的气质哦！👗
+除了珠宝节日，这款项链也适合作为日常佩戴，上班、逛街、约会等各种场合都能穿着它展现自己的时尚感。😎
+高级设计感十足，完美呈现女性的优雅和成熟，绝对是女性的必备单品之一！👍
+如果你也喜欢这款款式，就快来关注我的主页，我将会分享更多时尚、高质量的配饰哦！💖</t>
+  </si>
+  <si>
     <t>s999纯银流苏蝴蝶项链女轻奢小众锁骨链高级设计2023新款配饰</t>
   </si>
   <si>
+    <t xml:space="preserve">高级感十足的s999纯银双一字耳钉女，超仙的冷淡风排式珍珠耳环，ins风格必备的轻奢耳饰！😍 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐最近一直在寻找一款既高级又精致的耳环，终于找到了这款s999纯银双一字耳钉女，真的是太棒了！💍
+这对耳环上下错开一字造型，十分别致，上方镶嵌着亮晶晶的锆石，下方是一颗圆润珍珠，凸显出女性的婉约之美。闪闪发亮的设计，让人真的忍不住近距离欣赏。💫
+这款耳环的设计，让人感觉时尚而又高贵，非常适合搭配休闲服装和晚礼服，给人以优雅大方之感。👗
+冷淡风的色彩搭配，让人眼前一亮，夏日轻盈的白色衬衫，和这对耳环的拼配简直是太合适了呢！😉
+珍珠的自然光泽，营造一种优雅质感，高级感十足。配上精细的服饰，整体造型也会更加出色哦。✨
+所以，如果你正在寻找这样一款高级感十足的耳环，那么你一定不要错过这款s999纯银双一字耳钉女，它将为你的穿搭增添最适合的气质。👍
+记得关注我的主页，我会分享更多时尚的好物哦！💕</t>
+  </si>
+  <si>
     <t>s999纯银双一字耳钉女冷淡风排式珍珠耳环高级感ins轻奢耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">手链小清新，带上了它，搭配不限！💫 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+今天小姐姐要给大家介绍一款超美的手链啦！这款手链是2023新款，很有设计感，非常小清新哦！😍
+手链由S999足银制成，颜色很有质感，即使长时间佩戴也不会有氧化的情况出现。🌟
+最特别的是，手链的设计非常巧妙，多层转运珠与绳索相互融合，让整个手链更加有层次感，非常精致。👌
+手链的设计也很小众，不容易撞衫哦！搭配上各种衣服都非常的好看，无论是淑女风还是帅气带感的欧美风都ok！👍
+不仅可以在娱乐日常生活中穿戴，也可以作为礼物送给朋友或者情人，一定会让对方喜欢上你的用心。❤️
+如果你和我一样追求小清新的设计感，那么这款手链一定不要错过啦，赶快行动起来吧！
+记得关注我的主页，每天有好物等你来挑选哦！😘</t>
+  </si>
+  <si>
     <t>三生三世手链s999足银小众设计感多层转运珠手饰2023新款手串</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银紫藤花项链，女轻奢小众设计感，微笑锁骨链，赵樱子同款！必须入手👏 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐们，又给大家推荐一款精美的国潮风项链啦！这次是s999纯银紫藤花项链，绝对是女生必备轻奢小众设计感！🌸
+附赠和田玉的饰品盒装，连包装都毫不马虎，让人感觉非常贴心。细节之处再安排得如此周全，如此用心，不得不为之惊叹。💫
+项链上的紫藤花设计十分精美，镶嵌的锆石更是闪闪发光，非常引人注目。在夏日里佩戴，整个人都会变得更加明亮美丽，简直是小清新范儿的绝佳典范！🌺
+不仅如此，这款项链也是赵樱子同款哦！赵樱子的时尚品味实属一流，相信这也是大家为何如此关注这款项链的原因之一。✨
+而且，这条项链的长度也非常适宜，即使是略微暴露的锁骨处都很完美，晃起来特别好看！🤩
+总之，这就是一款设计感十足、绝对大牌范儿、又不会让人感到过于繁琐累赘的国潮风项链，如果你也是一个追求品质和新鲜感的小姐姐，一定要赶紧入手啊！💕
+别忘了关注我的小红书主页，还有更多好玩、好看、好用的饰品等着大家哦！🎉</t>
+  </si>
+  <si>
     <t>s999纯银紫藤花项链女轻奢小众设计感微笑锁骨链赵樱子同款</t>
   </si>
   <si>
+    <t xml:space="preserve">【s999纯银新中式葫芦项链，打造你的百搭复古风潮流造型！】🌟 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐又来为大家推荐一款超美的项链啦！这次是一款精致的中式葫芦形锁骨链，非常符合现在流行的文艺气息，而且各种场合都很百搭，让你成为焦点！✨
+这款项链采用的是s999纯银材质，镶嵌着美丽的珍珠，设计上还加了中式的风格元素，更加时尚。葫芦造型的设计让它看起来非常独特，也很符合中国风的潮流趋势。😍
+无论是通勤上班还是日常约会，都是非常适合的哦！而且它的长度也恰到好处，即使是衣领开的略微大一些的衣服也可以展现锁骨线条，非常性感！😉
+而且这个锁骨链颜色也是很好搭配的，搭配起来非常自然，你可以穿上它去逛街、烧烤、旅行等等微风情境里。它可以为你的装扮增添一份神秘感。👌
+如果你喜欢独特、时尚的单品，就不要错过这款美丽的葫芦项链啦！它不但可以让你成为焦点，还可以展现你别样的时尚品位。💖
+快来关注我的主页，让我们一起寻找更多好物吧！💕</t>
+  </si>
+  <si>
     <t>s999纯银新中式葫芦项链女通勤百搭珍珠锁骨链复古风创意项饰</t>
   </si>
   <si>
+    <t xml:space="preserve">小众精品s999纯银三生三世项链女，送给最爱的TA！💕 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐今天为大家带来一份关于爱情的小礼物推荐！这一次，我们选择了一款小众又高档的s999纯银三生三世项链。😍
+像很多人一样，我也是一位忠实的三生三世粉丝。所以当我看到这款高颜值的项链时，我立刻被它所吸引。😘
+项链上的转运珠手镯女非常精致，正中间的红宝石更是夺人眼球。而且在项链的下方还有一朵小小的莲花，代表着爱情的纯洁和美好。🌺
+这款项链外观精美，是轻奢时尚的代表，佩戴它的人一定可以成为全场最耀眼的焦点！💫
+如果你正在为情人节的礼物犯愁，那么这个选择绝对不会让你失望。这件小众精品一定会让属于你的Ta更加爱你。❤️
+记得关注我的主页，更多好物等你来挑选。🛍️</t>
+  </si>
+  <si>
     <t>s999纯银三生三世项链女轻奢小众转运珠手镯女神节情人节礼物</t>
   </si>
   <si>
+    <t xml:space="preserve">黑色山茶花 s999足银长款耳线，散发高级气质，春夏必备时尚耳饰！✨ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐今天又来为大家带来了一款不可错过的美丽耳饰！这款黑色山茶花 s999足银长款耳线，在春夏季节时非常适合，它的简约设计让你散发出超高级的气质呢！❤️
+使用了s999足银材质，让你的皮肤更加健康！而且零过敏，安全可靠。 👍
+它的黑色山茶花装饰在耳线上，仿佛置身于山茶花缤纷的花海之中。而细致的设计使得耳环长款，可以拉长五官，让你看起来更加的秀气。💕
+不仅如此，由于它的颜色黑色，所以可以很好的搭配你的各种服饰，而且非常百搭，让你穿出独特的个人风格！💃
+以上就是今天给大家带来的分享啦！如果你跟我一样对时尚饰品充满喜爱，别忘记关注我的号哦！我们下次见！😘</t>
+  </si>
+  <si>
     <t>s999足银黑色山茶花耳线女长款气质耳环2023年新款春夏耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">s925纯银向日葵MOM字母吊坠，100种语言投影，ins小清新设计感母亲节礼物推荐！🌻 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+准备送什么礼物给妈妈？实在想不出的小姐姐，今天就来推荐一件超美超好看的母亲节礼物——s925纯银向日葵MOM字母吊坠，100种语言投影，ins小清新设计感，超级适合送给自己的妈咪哦！👩‍👧
+这款吊坠采用纯银制作，吊坠采用独特的向日葵形状，加上“MOM”字母的设计，意味着对妈妈浓浓的爱，加上100种语言投影的设计感，瞬间让送礼的特别感爆棚！🎁
+ins小清新风格的造型，用低调的方式表达对妈妈的感激之情，在这母亲节一定要送一份不一样的礼物给妈妈，让妈妈感受到你的心意。🌸
+给妈妈带来惊喜的同时，也陪伴妈妈的生活，让妈妈每天都变得更加温馨幸福。🥰
+如果你还在为母亲节礼物而烦恼，这款s925纯银向日葵MOM字母吊坠是不容错过的选择！
+记得关注我的主页，更多好物等你来挑选哦！💝</t>
+  </si>
+  <si>
     <t>s925纯银向日葵MOM字母吊坠100种语言投影ins小清新设计感母亲节</t>
   </si>
   <si>
+    <t xml:space="preserve">足银990莲花莲子流苏毛衣链纯银项链，复古中国风文艺母亲节礼物推荐！👍 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐在这里给大家推荐一款非常精致的足银毛衣链纯银项链 —— 莲花莲子流苏🌸
+这款项链非常适合喜欢中国传统元素的女生们，采用浓郁的中国风文化设计，加入了漂亮的莲花和细腻的莲子装饰，显得非常优雅和复古✨
+针对母亲节来临之际，这款项链也可以成为送给妈妈最好的礼物之一哦，温暖了她们的心房。🎁
+此外，这款项链也非常实用，可以轻松地搭配各种毛衣，让你的搭配更加出彩！👌
+如果你也是喜欢中国风元素的小姐姐，就一定不能错过这款莲花莲子流苏毛衣链纯银项链啦！
+记得关注我的主页，了解更多好物推荐哦！💖</t>
+  </si>
+  <si>
     <t>足银990莲花莲子流苏毛衣链纯银项链复古中国风文艺母亲节礼物</t>
   </si>
   <si>
+    <t xml:space="preserve">【送妈妈必备】925纯银mama系列项链，送给最爱的妈妈的最佳礼物！🎁 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+五月母亲节将至，你是否正在为送给妈妈特别的礼物而苦恼？别担心，今天小姐姐就为你推荐一款特别的925纯银mama系列项链。😘
+这款项链采用925纯银制成，外观设计简约大方，有着清晰的妈妈字样，十分符合妈妈们的品味和气质。💎
+另外，这款项链有多种款式和颜色可以选择，可以根据妈妈的喜好来选择适合的颜色和款式，让礼物更加特别有心。🎉
+母亲节将到，想必妈妈们都期待着你的惊喜，不妨送上这款纯银mama系列项链，用爱为妈妈打造一个不一样的节日吧。💝
+除此之外，这款项链还可以搭配各种服饰，平时佩戴也非常适合哦。👌
+别让妈妈在母亲节的时候失望，抓紧时间前往购买吧！记得关注我的主页，获取更多时尚产品推荐哦。💖</t>
+  </si>
+  <si>
     <t>时尚经典母亲节礼物送母亲mama节日礼物925纯银妈妈项链系列产品</t>
   </si>
   <si>
+    <t xml:space="preserve">国风文艺范儿！s999纯银四叶草心形相扣项链大推荐！👑 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐今天给大家推荐一款超美的国风四叶草项链吧！这款项链是由S999纯银制成，精美的四叶草造型，简约而不失精致。💕
+同时这款项链的特别之处在于“心形相扣”的设计，充分表现了情感之间的牵绊和恋人之间的默契。❤️
+它不仅有中国风的原创设计，更是宫廷锁骨链的经典样式，让你穿出具有文化底蕴的国风范儿，充满着浓浓的历史气息。🙌
+锁骨链的长度也很适中，即使是略微暴露也非常好看，很迷人，让你摆脱掉了平淡无奇的气息。🎉
+适合搭配各种服饰，无论是聚会还是约会，都很适合哦。穿上这款项链，让你成为人们注目的焦点。💯
+如果你和我一样热爱中国文化、时尚有品位，就不要错过这款美丽的锁骨链了！记得关注我的主页，更多好物等你来挑选。🌺</t>
+  </si>
+  <si>
     <t>s999纯银四叶草心形相扣项链女电镀宫廷锁骨链中国风原创配饰</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银葫芦项链，2023年新款福禄吉祥锁骨链，纳福国潮风必备礼物！💝 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐来给大家介绍一款超级棒的新款葫芦项链！今年红爆啦，不仅大量明星都戴了，更是被不少国际时尚周刊报道，成为时尚潮人的最爱！🔥
+这款项链由s999纯银制成，镶着一个精美的葫芦形状，寓意着福禄丰收，既有美观的装饰性，又具有祥瑞的寓意。简直是神器！🍀
+纳福国潮风非常适合年轻人穿戴，不管是平时的出门逛街，还是到朋友聚会，都能轻松驾驭。而且作为礼物更是无与伦比的选择，送给亲戚朋友绝对不会出错。🎁
+锁骨链的长度很恰当，即使穿上厚外套也不会显得拥挤，简直是量身定制一样舒适。👍
+这款项链非常适合和其他项链进行搭配，可以发挥出新颖的效果，成为整个搭配的亮点。😍
+如果你和我一样喜欢这款葫芦项链，不要犹豫，快来选购吧！记得关注我的主页，不定期分享更多好物，让你一秒钟变身时尚达人！💃</t>
+  </si>
+  <si>
     <t>s999纯银葫芦项链女2023年新款福禄吉祥锁骨链纳福国潮风礼物</t>
   </si>
   <si>
+    <t xml:space="preserve">超强CP组合，值得收藏！👀 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐我又来为大家推荐一款国潮风的锁骨链啦！这次我选的是s999纯银月亮兔项链女，加上一颗精美的和田玉吊坠，真的是超级美的组合！😍
+今年是兔年，这款 necklace 完美地呈现出了中国风的元素，即使过去了2023年，也绝对不会过时！🌟
+它的链条长度很适合锁骨，整个人的气质都变得更加优雅，高贵。🎉
+这款项链的配饰是明星们的最爱，林依晨、张韶涵、胡静都曾经穿过了它。所以，你也一定要拥有它！👌
+除此之外，这款项链和我之前推荐的那款国潮风s999纯银锁骨链完美的匹配，两个CP的搭配真的是太棒了！你可以随心所欲地变换着搭配着，让自己成为闪耀夜空下的独一无二的存在。🌠
+还有，别忘了关注我的主页哦！每天我都有新的好物推荐给你们，你们肯定会喜欢的！💖</t>
+  </si>
+  <si>
     <t>s999纯银月亮兔项链女2023年新款和田玉吊坠中国风兔年锁骨链</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银福字项链女, 好评如潮的中国风锁骨链！福气满满🐟 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐今天要给大家介绍的这款s999纯银福字项链，真的是太美了，超级符合我这个喜欢中国风的小仙女的审美！🌺
+它的造型极具中国福字特色，同时加入了许多珠宝选材的巧妙设计，它的金属质感非常逼真，透着一种古朴而神秘感。😇
+锁骨链的长度非常适中，很适合精致的女孩子作为日常搭配，戴上这款项链就能为你带来好运，想想都感觉十分舒心呢。🥰
+这种又国风又时尚的饰品，完全符合我最近受中国文化影响的审美，而且非常适合秋冬季节搭配，让你在人群中脱颖而出。👏
+同时，这款项链也是很优秀的送礼选项。传递着中国传统的和谐祝福。你可以将它送给你的母亲、闺蜜、女友、甚至是老奶奶都是再好不过啦！🎁
+感觉已经跌入中国风的大坑，小姐姐很喜欢这款项链呢。最后，卖个关子，小姐姐的主页里还有更多中国风好物哦，感兴趣的小伙伴们千万不要错过啦！💕</t>
+  </si>
+  <si>
     <t>s999纯银福字项链女2023年新款福牌锁骨链中国风纳福秋冬项饰</t>
   </si>
   <si>
+    <t xml:space="preserve">浪漫粉色爱心宫廷风，s999纯银海洋之心项链，打造你的酷潮毛衣风！💕 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐最近入手了一款美丽的 s999纯银海洋之心项链，它是由粉色爱心和海洋之心构成的，设计灵感源于宫廷风格。😍
+这款项链的特点是链条比较细，加上精致的造型和粉色爱心，看起来浪漫而不俗气。戴上之后能够让你秒变小公主，适合搭配各种女款毛衣，让你的慵懒秋风更温柔。👗
+而且，这款项链的锁骨链长度设计恰到好处，没有太长或者太短的感觉，很好地突出锁骨的美感。🎉
+锁骨链的那颗海洋之心的造型也十分独特，透出一股酷潮的时尚气息，很适合现代都市白领或是学生族的时尚穿搭。👩‍💼👩‍🎓
+小姐姐还特别喜欢这款项链的细节设计，线条精细、无刺手感，而且没有什么大logo的标志，非常低调而高贵。👑
+总之，这是一款既有宫廷风格又有酷潮气息的完美结合，穿它出去绝对吸引眼球。一起来买买买吧！💰
+记得关注我的主页，更多好物等你来挑选。💖</t>
+  </si>
+  <si>
     <t>s999纯银海洋之心项链女浪漫粉色爱心锁骨链宫廷风酷潮毛衣链</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银竹节手链女，2023年国风竹报平安手串本命年福牌手饰品，充满中国风味道！✨ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐想和大家分享一款非常有国风特色的手链——s999纯银竹节手链女！这款手链非常考究，不仅镶嵌了竹节的形状，还贴近本命年，使用了2023年的福牌元素，非常有意义。🎉
+手链的材质是s999纯银制成，光滑光泽，非常有光泽感。完美的竹节形状，加上精致的雕刻，更是充满了中国古典文化的气息。🎁
+这款手链有个小小的细节就是，在手链两端的位置，明显出现了寥寥几个细红绳，配合着绳结，更加的恰到好处，温婉优雅。🌸
+还有就是，手链的尾部结束，是一个非常别致的福牌，银光闪闪，拿在手中超级精致。🌟
+如果你跟我一样，热爱中国传统文化，喜欢各种有意义的纪念品或者装饰品，那么这条手链一定不能错过啦！一定可以让你脱颖而出。👌
+同时，想获得更多国潮风文化的小物品，不妨关注我的个人主页，更多精美好物等你来挑选！💖</t>
+  </si>
+  <si>
     <t>s999纯银竹节手链女2023年国风竹报平安手串本命年福牌手饰品</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银莫比乌斯环项链女和田玉环绕玉兔锁骨链2023年新款潮！流行的同时又多了一份文艺气息✨ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小哇，今天要给大家带来一款超棒的锁骨链 - S999纯银莫比乌斯环项链女和田玉环绕玉兔锁骨链2023年新款潮！🐰　
+这款锁骨链采用了360度无死角打磨，贴心细致的设计展示了项链完美的比例。👍　　　　　　　　　　　　　　　
+项链造型独特，采用了莫比乌斯环的设计，散发出对于自然和生命的崇敬。和田玉坠型极佳，外形简约，自然美丽。🌟
+饰品中间的玉兔是最大的亮点！玉兔寓意美好，时隔多年后又一次融入珠宝设计之中，成为一个新的时尚潮流。💎
+如果你喜欢文艺气息的衣服、饰品，这款项链绝对不会让你失望！加入了很多新元素，让整个饰品更加流行、更具时尚感。👌
+更重要的是，这款项链非常适合搭配各种装扮，让你的穿搭更有层次感！　　　　　　
+如果你和我一样追求独特、时尚的单品，就不要错过这款美丽的锁骨链了！同时别忘了关注我，我会推荐更多好物哦！😘</t>
+  </si>
+  <si>
     <t>s999纯银莫比乌斯环项链女和田玉环绕玉兔锁骨链2023年新款潮</t>
   </si>
   <si>
+    <t xml:space="preserve">s999四叶草项链女和田玉兔子本命年锁骨链，2023年新款兔年礼物强推！🐰 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐们，你们准备好了吗？即将到来的2023年是兔年哦！别忘了赶紧给自己或是您的家人、朋友准备一份兔年的特别礼物！🎁
+今天来给大家介绍一款特别适合兔年送礼的s999四叶草项链女和田玉兔子本命年锁骨链，有木有顿时感觉增添了几分爱意和好运气？🍀🐇
+这款锁骨链由s999银链精制而成，挂着一个精致的四叶草，以及一个可爱的和田玉兔子，代表着幸运和爱情的寓意。而且，这款锁骨链的效果非常显著，佩戴它能够增加好运的机率😍
+而且不仅适合兔年赠送礼物，平日里也穿戴这款银饰物也很适合哦，很适合与各种服饰搭配~还可以搭配着别的银饰一起穿戴。💫
+如果你还不知道送什么礼物，那就赶紧来选购这款兔年吉祥物锁骨链吧！不仅有好的寓意，还非常实用，不容错过！🎉
+最后，记得关注我的主页，更多精美银饰等你来发现！💕</t>
+  </si>
+  <si>
     <t>s999四叶草项链女和田玉兔子本命年锁骨链2023年新款兔年礼物</t>
   </si>
   <si>
+    <t xml:space="preserve">扎心了！这款纳福锁骨链太美了，不买绝对后悔！💕 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐今天来给大家分享一款非常适合女孩子的复古风纳福锁骨链！这款项链由s999纯银制成，上面是四叶草和心形图案，非常精致。💍
+这款项链代表了幸福和好运，脖子上戴上它，一定会更有自信，更加美丽动人！😍
+锁骨链长度刚好，既适合夏天穿上短袖，也适合冬天搭配毛衣。无论平时上班还是约会，都能抢镜！✨
+不仅满足你的美观需求，而且也是一款非常有意义的礼物！给女友、姐妹、妈妈送上这款项链，一定能让她们心花怒放！🎁
+小姐姐我已经迫不及待地下单啦！你也别犹豫了，赶紧入手吧！😉
+记得关注小姐姐的主页，更多好东西等你来发现！💓</t>
+  </si>
+  <si>
     <t>s999纯银四叶草心形相扣项链女复古风纳福锁骨链</t>
   </si>
   <si>
+    <t xml:space="preserve">华美优雅，让你更有女人味！s999纯银玫瑰花耳钉来袭啦！ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐们，今天我要推荐给大家一款超级美丽的耳钉——s999纯银玫瑰花耳钉。这款耳钉极具复古气息，让你在人群中格外引人注目。😍
+玫瑰花的外形设计非常精致，每一片花瓣都被制作的非常逼真，仿佛就要在你的耳畔开放般美丽。💐
+法式复古的设计，搭配上一颗珍珠，更加的凸显出优雅和高贵。佩戴起来不管是装扮还是气质都非常的不错。👑
+这款耳环的使用材料是s999纯银，非常的环保，不会对我们的身体造成威胁。而且这款耳环也非常的轻盈，不会太过压迫耳朵。🌿
+如果你正在寻找一款优美、又大气的耳环，那么这款s999纯银玫瑰花耳钉一定不能错过哦！
+更多精美饰品，赶快来我的主页逛一逛吧~ 🛍️</t>
+  </si>
+  <si>
     <t>s999纯银玫瑰花耳钉法式复古珍珠花朵耳饰2023新款优雅耳环</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银和田玉玉兔项链女，2023年新款轻奢感锁骨链兔年毛衣链！必入手！💝 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+嘿嘿，小姐姐这次给大家推荐的是一款超级可爱的 S999 纯银和田玉玉兔项链女！👀
+这个链子的最大特点就是把兔年元素和轻奢感的设计完美结合，让人一看就觉得萌萌哒！😍
+配上精致的和田玉雕刻，整个项链看起来十分精致，彰显迷人风采！✨
+它采用的是锁骨链设计，自带时尚的感觉，而且搭配毛衣或者上衣都非常好看哦！👗
+除了它的外观亮瞎了我的眼，它的材质可不是一般的简单，有s999纯银以及和田玉共同打造，也是不会过敏的一个好选择。👀
+如果你也想拥有这款可爱的项链，那就不要犹豫了，赶快下单吧！💕
+别忘了关注我的主页哦，有更多好东西等着你们！🌸</t>
+  </si>
+  <si>
     <t>s999纯银和田玉玉兔项链女2023年新款轻奢感锁骨链兔年毛衣链</t>
   </si>
   <si>
+    <t xml:space="preserve">冬日必备！s999纯银立体方形项链，造型可爱，甜美气质！🎁 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐来啦！今天向大家介绍一款冬日必备的锁骨链，它是一款可爱的方糖造型的S999纯银立体项链，是圣诞节送礼的不二之选哦！🎄
+它的设计非常精致，饱满立体的方糖造型，搭配精美的S999纯银，让整条项链都散发着可爱而高级的气息。😍
+这款项链长约42cm，锁骨链长度刚刚好，让你摆脱了英式复古领带的束缚，展现出青春活力的优雅气质。💃
+同时，它的搭配也非常灵活，既可以搭配休闲装扮，又适合搭配正式的职业装，给你不一样的造型体验。👗
+如果你正在为圣诞礼物而苦恼，那么这款s999纯银立体方形项链绝对是一个不错的选择，让你的TA感受到你的用心和独特的品味。🎁
+关注我的主页，让你不错过更多的好物推荐，赶紧行动起来吧！🛍️</t>
+  </si>
+  <si>
     <t>s999纯银立体方形项链女甜美气质方糖造型圣诞礼物锁骨链配饰</t>
   </si>
   <si>
+    <t xml:space="preserve">四叶草的幸运，让这款项链自带好运气！🍀 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐今天要推荐的是一款高级感和甜美风格完美结合的项链，它既有满钻的闪亮，又有四叶草的幸运气息。🌟
+这款项链采用了S999纯银材质，让整个链条看上去非常精致。链条上生动的四叶草造型，铺满了闪闪发光的小钻石，让这款项链明亮耀眼！✨
+最特别的是，它的长度非常适合做为锁骨链，不仅让你的颈部肌肤显得白皙迷人，还会让你的脸颊也显得更加精致动人。👍
+如果你是个长草甜美风格的小姐姐，那么在日常的搭配中，这款项链是个不错的选择。无论是搭配毛衣还是短外套，都很有气质和品味，让你做出独一无二的装扮。😍
+喜欢这款项链的小姐姐们，不要错过哦，因为好的小物件是需要我们抓住的。同时，记得关注我的主页，更多好物等着您哦！💖</t>
+  </si>
+  <si>
     <t>s999纯银四叶草项链女高级感气质满钻锁骨链甜美幸运草毛衣链</t>
   </si>
   <si>
+    <t xml:space="preserve">萌兔链来袭！s999纯银和田玉环绕，彰显小清新风格🌸 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐今天给大家推荐一款超萌超可爱的项链——s999纯银和田玉萌兔项链女原创设计环绕玉兔锁骨链中国风项链！😍
+这款项链由s999纯银制成，上面环绕着一个玉兔，十分可爱，非常适合喜欢小清新风格的闺蜜们哦。🐰
+和田玉这种天然优质矿石的纯净质感让整条项链更有珍贵的感觉，而精湛的工艺又让这个萌萌的玉兔栩栩如生，真的太可爱啦！💖
+锁骨链长度也很剪裁合身，特别是在夏天露出锁骨更能显示出美好的曲线美。配上清新小裙子或是白色吊带，一下子就变成了校园小清新王者！👗
+这款项链完全是原创设计，只能在指定店铺购买，一个人佩戴非常好看，也可以和闺蜜一起拥有一个，情侣也可以戴上不同款式的，好有爱哦！💕
+不仅可爱又不失高雅，还可以防止你迷路，就是这么贴心啊！
+快来关注我的主页，和我一起发现更多美好的物品吧！🌟</t>
+  </si>
+  <si>
     <t>s999纯银和田玉萌兔项链女原创设计环绕玉兔锁骨链中国风项链</t>
   </si>
   <si>
+    <t xml:space="preserve"> 小众又不失高贵，值得入手的s999纯银雪花锁骨链 </t>
+  </si>
+  <si>
     <t>s999纯银雪花项链女轻奢小众2023年新款锁骨链</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银竹节项链女民族风气质富贵竹锁骨链圣诞节礼物送女友🎁 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐今天给大家介绍一款相当有特色的 s999纯银竹节项链！这款项链设计有如竹子，使佩戴者更具有气质，更显富贵。 🎍
+这款项链是由纯银制成，打造精良，手感极为舒适。它的细节设计非常到位，配上上面的竹节，整个项链看起来清新自然，十分有特色。🌿
+它适合搭配民族风、清新风和浪漫风格的服饰，有着民族风的美，也不失优美的气息。将其佩戴在锁骨处，完美呈现女性的气质和美貌。🌺
+作为圣诞节礼物送女友的选项之一，真的不会让你的女友失望。这款项链不仅是精致的装饰品，还可以让女友感受到你的用心和心意。🎄
+如果你也喜欢这款竹节项链，赶快去我的主页看看吧！我还有更多精美礼物可以推荐给你哦。✨</t>
+  </si>
+  <si>
     <t>s999纯银竹节项链女民族风气质富贵竹锁骨链圣诞节礼物送女友</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银鱼尾项链女轻奢百搭锆石花朵锁骨链2023年新款毛衣链 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐今天来推荐一款新颖精美的 锁骨链 ，这款锁骨链由s999纯银制成，更添优雅贵气，锁骨链的鱼尾设计更加优美，极具品味！👑
+锁骨链上镶嵌着数颗小巧精致的锆石花朵，每朵花都是精心雕琢而成，既精致又优美，让人舒畅。💐
+细节是决定成败的关键，这款锁骨链在每一个细节上都可以看出时尚感和精致程度，在任何场合下佩戴都不会掉价。😎
+这款锁骨链的千变万化是它最大的特点，搭配毛衣、T恤、衬衫，都可以穿出不同的风格，让你在任何场合都成为大家的话题。👍
+2023年的新款毛衣链有这么好看的款式真的太赞了！小姐姐一定会入手的哈哈😜
+如果你像我一样喜欢时尚独特的单品，快来关注我的主页，更多好物等你来挑选哦！❤️</t>
+  </si>
+  <si>
     <t>s999纯银鱼尾项链女轻奢百搭锆石花朵锁骨链2023年新款毛衣链</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银和田玉兔项链女原创设计，幸运草锁骨链本命年新款项饰！好看到哭😭 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐又来给大家推荐一个美美的国潮风饰品啦！这次推荐的是一款s999纯银和田玉兔项链女原创设计，超级可爱！🐇
+这款项链整体用了银色的调子，佩戴在颈部上特别清新！兔子吊坠抢眼，加上小小的绿色和田玉，让人一看就觉得很温馨。🌿
+锁骨链的长度非常合适，即使穿低胸衣服，也完全不会妨碍锁骨线条的美观，可爱又性感！💃
+而且这款饰品是本命年新款，还有一个小小的幸运草吊坠点缀，配起来就更有意义啦！开心感受到了跟生肖相伴的特别魔力。🍀
+如果你也是喜欢cute风格的小姐姐，那这款项链绝对是你的菜！怎么能错过呢？别忘了收藏哦😉
+更多好物等你探寻，记得关注我的主页，一起美美哒！❤️</t>
+  </si>
+  <si>
     <t>s999纯银和田玉兔项链女原创设计幸运草锁骨链本命年新款项饰</t>
   </si>
   <si>
+    <t xml:space="preserve">小红书最新推荐！s999纯银爱心耳钉女款，2023年小众设计感，粉色耳环轻奢圣诞节耳饰！💍 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小仙女们，又到了一年一度的圣诞节，你是否已经准备好了一套完美的圣诞节装扮呢？而作为完美的配件，一款好看的耳饰可是必不可少哦。今天，我就要向大家推荐这款超美的s999纯银爱心耳钉女款啦！🎁
+首先，这款耳钉的设计非常小清新，让你感受到设计师的创意，加上粉嫩的色调让整个耳钉显得格外的可爱、精致，让你举手投足都充满了少女的活力。👧
+其次，这款耳钉的材质非常好，它采用的是s999纯银，因此质量非常好，不怕磨损，更能保持亮丽的光泽，即使佩戴多年也不会掉色。👍
+最后，这款耳钉的重量非常轻，给人一种轻松愉悦的感觉，不会给你带来任何的负担感，即使戴上一整天也非常舒适。🌸
+如果你也喜欢这款耳钉的话，就不要犹豫啦！赶紧入手这款小清新耳钉，让你的圣诞节穿搭更加完美吧！同时，也欢迎关注我的主页，获取更多时尚资讯和好物推荐。🎀</t>
+  </si>
+  <si>
     <t>s999纯银爱心耳钉女2023年小众设计感粉色耳环轻奢圣诞节耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银四叶草耳环女，2023年新款潮耳钉，带来高级感耳线秋冬耳饰！酷炫🔥 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐又来推荐好看的耳环啦！这次要介绍的是非常有个性的 s999纯银四叶草耳环女，超级酷炫！🍀
+这款新款潮耳钉特别适合秋冬季节，耳线设计非常独特，给人带来一种高级感，脖子以下的全部都不需要装饰了👩‍❤️‍👩
+耳环的花瓣纹理非常清晰，叶子的形状也很漂亮，整个造型设计感十足，非常适合潮流文艺女孩子。🌈
+它的重量不重，戴上后非常舒适，不影响平时生活，又很适合各种场合，有着百搭的商务气息，也有可爱的小清新风格。🌟
+除了造型，材质也非常不错，采用 s999 纯银制作，不会过敏，经久耐用，真的是非常的赞！😍
+2023年，这款耳环绝对是潮流的代表。如果你也想尝试一下新的潮流趋势，就不要错过这款好物了！💖
+记得关注我的主页，还有更多好物等着你哦！🎁</t>
+  </si>
+  <si>
     <t>s999纯银四叶草耳环女2023年新款潮耳钉高级感耳线秋冬耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银四叶草项链，设计感十足的小众锁骨链！2023年必备轻奢毛衣链！🍀 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+亲爱的小伙伴们，今天又来为大家推荐一款好看的项链啦！这款s999纯银四叶草项链，设计感十足，小众锁骨链，是2023年必备的轻奢毛衣链！👍
+四叶草的寓意我们都知道，它代表着幸运和好运气，你戴上这款项链就注定会走运哦！😉
+这款项链的设计很特别，四叶草下方镶嵌着一个精致的南洋珍珠，珍珠的白色和银色的项链非常搭，为整个项链增添了一份低调的奢华感。💎
+锁骨链的长度也刚刚好，即使是穿上厚重的毛衣也十分好看，非常适合秋冬季节的搭配。🍂
+这款小众锁骨链非常适合年轻人，设计感十足，是时下非常流行的轻奢风格，穿上它的人百看不腻。🌟
+如果你还在为没有好看的项链而苦恼，那就赶快点击购买吧！这款s999纯银四叶草项链，绝对是你的不二之选！💖
+不要忘记关注我的主页，分享更多好看的单品和时尚搭配技巧哦！😍</t>
+  </si>
+  <si>
     <t>s999纯银四叶草项链女设计感小众锁骨链2023年新款轻奢毛衣链</t>
   </si>
   <si>
+    <t xml:space="preserve">小众潮款！s999纯银耳骨钉女耳环，带给你高级感体验！👀 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+亲爱的，今天给大家推荐一款小众潮款的s999纯银耳骨钉女耳环。这款耳环从设计到材质都非常具有高级感，是绝对不容错过的单品。😍
+这款耳钉非常特别，它不同于传统的耳环或耳钉，而是一种耳骨钉，可以搭配多种不同的风格。造型时尚前卫，细节处理也非常到位，可以展现出你的时尚品味。👍
+款式非常新颖，别致的设计和建议的材质让它更具时尚特性。
+精致的工艺和高贵的质感，让你的整体形象更上一层楼！🌟
+耳骨钉非常时尚，搭配出各种不同的时尚风格，非常具有个性和潮流，非常适合年轻女性。同时它与不同的服饰搭配，都能有出色的穿搭效果，无论是上班还是出门玩都非常适合。😉
+如果你想要一款与众不同的高级感耳钉耳圈耳骨环，并带有时尚、高贵的气息，那么这款s999纯银耳骨钉女耳环绝对是不二之选！
+别忘了关注我的主页，获取更多关于时尚搭配和饰品的实用信息！💖</t>
+  </si>
+  <si>
     <t>s999纯银耳骨钉女耳环小众2023年新款潮高级感耳钉耳圈耳骨环</t>
   </si>
   <si>
+    <t xml:space="preserve">浪漫可爱，清新自然——s999纯银双五角星耳扣，让你的耳朵更有灵气！🌟 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐今天来推荐一款非常受欢迎的双五角星耳扣，这款耳环采用s999纯银制作，清新甜美的五角星造型独具匠心，绝对是小姐姐控们的最爱！💗
+这款耳环不仅耳挂体验非常舒适，而且线条明快，光泽柔和，质感十足，增添了整个造型的设计感，即可甜美可人，又不失时尚感。👸 
+而且五角星的运用让它更具有时尚感与流行性，非常适合搭配各种不同风格的穿搭，从时尚潮流到文艺小清新，都可以hold住啊！👍
+发现这种小众设计感的耳环之后，我已经爱上了它的方方正正的可爱外形和精致的细节，穿上它，心情也变得愉悦起来了。✨
+如果你也是女孩子，想变得更文艺可爱，就不要错过这款精美的双五角星耳扣了！💖 
+记得关注我的主页，更多好物等你来挑选哦！😉</t>
+  </si>
+  <si>
     <t>s999纯银双五角星耳扣星星可爱甜美耳环女小众设计感超仙耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银四爪镶钻珍珠吊坠项链女2023年爆款锁骨链！赞👍 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐们，你们想要拥有一款永不过时的项链吗？我今天给大家推荐的这款s999纯银四爪镶钻珍珠吊坠项链女2023年爆款锁骨链，绝对不容错过！👑
+锁骨链长短适宜，不论是高领还是V领都非常百搭，戴上之后会马上让你的颈部变得纤细起来，温柔优雅，彰显出女性的柔美美感。💄
+那条质感十足的银链上，镶嵌着闪闪发光的小钻石，衬托出一个方形的珍珠吊坠，简直惟妙惟肖！不得不说，这款项链的创意设计是让人眼前一亮的。✨
+珍珠天然质地，豆圆饱满，白皙晶莹，每一颗都完美无瑕，绝对是值得你一生珍藏的好物。💍
+如果你也想像我一样成为时尚女神，那么这款项链必须要入手啊！无论是参加晚宴还是日常出行都能让你与众不同。🌟
+记得关注我的主页，让我们一起探索更多时尚单品，一起变得更加有魅力！💖</t>
+  </si>
+  <si>
     <t>s999纯银四爪镶钻珍珠吊坠项链女2023年爆款锁骨链</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银一叶暴富项链女设计感珍珠锁骨链轻奢高级感百搭颈链！来了来了！👑 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐今天为大家推荐一款极具设计感和高级感的项链——s999纯银一叶暴富项链女设计感珍珠锁骨链轻奢高级感百搭颈链！😍
+这款项链采用了纯银制作，质量过硬，手感非常顺滑。链子上镶嵌有一片极具设计感的红色叶子，和几颗白色珍珠，让这款项链更加精美。🍁🌸
+项链的长度刚好能够勾住脖子，轻轻一挂，让人感到自己拥有了不一样的气质。🎉
+无论是搭配简单的T恤还是高级感十足的晚礼服，这条项链都显得格外亮眼，完美提升你的时尚品味。💎
+最重要的是，这款项链的价格非常亲民，不仅能够满足你对时尚品味的追求，还不需要花费太多金钱。🤑
+喜欢这款项链的宝宝们，千万不要错过啊！记得关注我的主页，更多好物等你来挑选。💖</t>
+  </si>
+  <si>
     <t>s999纯银一叶暴富项链女设计感珍珠锁骨链轻奢高级感百搭颈链</t>
   </si>
   <si>
+    <t xml:space="preserve">唯美小清新，999纯银爱心项链让你闪亮登场！✨ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐的饰品推荐又来了！这次我给大家带来一款超级美丽的 999纯银爱心项链！💍
+这款项链采用了韩版的设计风格，非常的小清新，它的心形造型特别可爱，加上满钻镶嵌的细节设计，简直就是甜美又浪漫的结晶。🥰
+锁骨链的长度很合适，佩戴在颈部的感觉非常舒适，让你在任何场合都可以自信地闪耀。✨
+这款 999纯银爱心项链配上淡雅裙装，或是清新的白色T恤，都能营造出完美的搭配感。😍
+当然，它也可以成为一份盛赞的礼物，送给心爱的ta，让ta感受到你的温暖和关怀。🎁
+如果你也爱像我一样热爱小清新饰品，那么一定不能错过这个绝佳的选择了！快快行动吧！
+记得关注我的主页，不断推荐好看的商品给大家！💖</t>
+  </si>
+  <si>
     <t>999纯银爱心项链女韩版小清新满钻心形锁骨链ins轻奢甜美颈链</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银天使之眼耳扣，绚烂的水晶与高级珠宝的完美结合！✨ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐又来为大家推荐一件超美的耳饰啦！今天介绍的这款耳扣完美地结合了精美的水晶和高级珠宝，让人一眼就被它的绚烂华丽所吸引！💎
+作为一位对于品质有要求的小姐姐，我对于S999纯银材质和与之搭配的水晶以及钻石非常满意。每一处细节都展现了设计师的高超手艺，整个耳扣看上去非常高级小众，而且带着也非常舒适。😍
+天使之眼设计别致，立体感强，让它看上去不仅是一件耳饰，还有一种独特的艺术感。而蓝色水晶的色彩则更是让人惊叹，美得像是从星空里捡回来的一样，自带亮眼的光彩。🌟
+这款耳扣非常适合搭配各种场合，不论是日常还是晚宴都非常合适，无论搭配简单的衣着还是华丽的礼服，都会让你闪闪发光。👑
+如果你和我一样喜欢珍贵的耳饰，一定不能错过这款天使之眼耳扣了！
+记得关注我的主页，每天分享更多好物~❤️</t>
+  </si>
+  <si>
     <t>s999纯银天使之眼耳扣女新款蓝水晶满钻耳环轻奢小众高级耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">小众时尚！极具艺术风格的创意设计！👀 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐今天给大家介绍一款非常小众时尚的耳饰，这款耳饰是由s999纯银打造而成，造型非常有创意，既有法式珍珠又有后挂式的设计，给人带来一种极具艺术感的感觉。🌸
+在很多场合里，有一个与众不同的耳饰可以让你更加亮眼，更加不同寻常，这款耳饰就可以满足你对于小众时尚的追求。👍
+这款耳饰坚固不易损坏，而且非常轻巧，即使一整天带上也不会感到疲劳，今年是全新推出，喜欢的朋友们速来选购！🛍️
+追求时尚潮流的你，不妨试试佩戴这款耳饰，让你成为聚光灯下的焦点。不同的场合选择不同的款式，一定让你眼光独到。👑
+无论是宴会还是普通日常，都能够带给你一丝不一样的亮点，更加突出你的魅力。🌟
+如果你也喜欢这款耳饰，记得关注我的主页，更多好物等你来发现。赶快行动吧！💖</t>
+  </si>
+  <si>
     <t>s999纯银豆豆耳钉女法式珍珠后挂式耳环轻奢小众一款俩戴耳饰</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银小金球耳扣女，2023年新款耳环，使你更加美丽动人！✨ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐今天来给你们推荐一款非常时尚的耳环——s999纯银小金球耳扣女，2023年新款，绝对是时尚女孩的首选之一！💎
+这对耳环的设计极其简洁，且非常精致，更特别的是，它还配有一个小小金球，增加了整个耳环的戏剧感，让人看了会心一笑。😊
+耳环上还装饰着一颗珍珠，这种材质非常可以凸显女孩子的优雅气质，同时也显得十分高级。✨
+它不仅适合搭配各种服装，也可以用来搭配各种场合，比如：约会、派对、送礼等。无论是什么场合，你都可以尽情展现自己的风采!🎉
+那么，你还在等什么呢？快来感受这对s999纯银小金球耳扣女，2023年新款耳环带给你的魅力和自信吧！💕
+记得关注我的主页，更多好物等你来挑选。👀</t>
+  </si>
+  <si>
     <t>s999纯银小金球耳扣女2023年新款耳环时尚珍珠耳坠潮流耳饰品</t>
   </si>
   <si>
+    <t xml:space="preserve">🌟国潮风s999纯银和田玉如意项链，送给母亲的完美礼物！🎁 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐今天要给大家推荐一款非常适合母亲节送礼的项链——s999纯银和田玉如意锁骨链！🌺
+如意是古代传说中最神秘、最能满足人们好听好看心愿的宝物，代表着幸福、美好、吉祥和安康，是母亲节的完美象征。💕
+这款项链由优质s999纯银制作，配搭当下最火热的国潮风格，锁骨链长度刚刚好，可以让妈妈摆脱平凡无奇，成为聚会中最闪耀的存在。🎉
+而和田玉则更加突出了这种精神内涵，代表着团圆、美好家庭，更体现了母爱的卓越品质。🌸
+在这个特别的节日里，送上这样一份完美、体贴和有意义的礼物，一定会让妈妈感到无限的欣慰和感动。💖
+此外，这款项链也非常适合自己佩戴，搭配各种服饰都很好看，让你摆脱平淡无味的气息，成为聚会中最抢眼的存在。👯‍♀️
+若想获得这个国潮风的母亲节礼物，在我的主页，就可以找到购买的链接哦！👉
+期待你的加入，更多好物等你来挑选。😘</t>
+  </si>
+  <si>
     <t>s999纯银和田玉如意项链女平安锁吊坠锁骨链国潮风母亲节礼物</t>
   </si>
   <si>
+    <t xml:space="preserve">同步韩国流行元素，超美蝴蝶结设计！🦋 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+小姐姐们，今天为大家推荐一款超美的s999纯银蝴蝶结耳钉。这款耳钉采用小众设计感元素，搭配复古的祖母绿颜色，让整个耳环散发出一股迷人的甜美风。😍
+蝴蝶结设计是这款耳钉的亮点之一，非常精致。采用s999纯银制成，光泽感极强，小小一对耳钉就能让你的整个造型提升一大截。✨
+而且这款耳钉重量适中，不会有压迫感，舒适度很高，完全可以长期佩戴。👍
+不知道大家有没有发现，这款耳钉与韩国流行元素十分贴近，适合喜欢韩风的妹子们，也适合搭配各种清新小众风的穿搭。🌸
+当然，这款耳钉不仅适合日常穿搭，也适合各种社交场合的搭配，让你成为气场十足的小仙女。🧚‍♀️
+总之，这款美丽的蝴蝶结耳钉真是太妙了，快加入我的粉丝团，与我一起分享更多时尚的饰品吧！💕</t>
+  </si>
+  <si>
     <t>s999纯银蝴蝶结耳钉女小众设计感祖母绿耳环甜美风复古耳饰潮</t>
   </si>
   <si>
+    <t xml:space="preserve">s999纯银水滴形耳环，展现女性优雅的复古风格！赞👍 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐今天给大家带来一款超级美丽的耳环，这个耳环采用了高品质的S999纯银制作而成，在光线的映照下非常闪亮，无论是在光线好的地方还是在光线不好的情况下，都能很好的发挥出它的美丽。💎
+这款水滴形耳环设计感超级强，令人无法抗拒，有一种低调的高贵，同时还展现出一丝的复古风格，充满了浪漫情怀，超有气质。😍
+圆圆的耳扣造型非常光滑，没有半毛钱的瑕疵，精细的打磨，让人心生爱意。🌟
+佩戴舒适，非常的适合日常搭配。无论是在工作场合，还是出门购物，都能让你展现出自己独特的女性优雅魅力。👌
+总而言之，这个耳环是女性一定要拥有的配饰之一，那么抓紧时间去买吧！
+别忘了关注我的主页，更多好物让你打造不一样的风格。💖</t>
+  </si>
+  <si>
     <t>s999纯银水滴形耳环女复古风法式素圈耳扣个性光面圆圈耳饰品</t>
   </si>
   <si>
+    <t xml:space="preserve">【本命年必备】s999纯银和田玉月亮兔项链，时尚品味乐不停！🐰 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐我来给大家推荐一款超级可爱的锁骨链！这款项链采用了s999纯银打造，精美的和田玉月亮兔配上流苏设计，让人爱不释手！💕
+特别适合喜欢萌萌哒元素的女生们，而且穿上这款项链还能招来好运哦！毕竟这是本命年必备的幸运护身符啊！🍀
+这款项链不仅可以搭配各种毛衣，也非常适合搭配连衣裙、衬衫等各种不同风格的服饰。即使是平淡的T恤也能因为它的存在而多了几分时尚品味。😍
+如果你像我一样，喜欢把个性和潮流融为一体，那这款和田玉月亮兔项链绝对是你的菜！
+记得关注我的号，更多潮流时尚单品等你来发现哦！💋</t>
+  </si>
+  <si>
     <t>s999纯银和田玉月亮兔项链女星星流苏毛衣链原创本命年锁骨链</t>
+  </si>
+  <si>
+    <t xml:space="preserve">设计感十足！s999足银超闪四芒星耳坠，搭配小众珍珠流苏耳钉，超级惊艳啊！🤩 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小姐姐的耳朵一直都是很挑剔的，对于选择耳环这个小细节也是非常有讲究的。今天给大家推荐一款非常时尚的s999足银超闪四芒星耳坠，喜欢珍珠流苏的小姐姐们也不要错过啊！💕
+这款耳坠是由s999足银制成，镶嵌四颗闪烁的锆石，造型十分有设计感！👍
+而且这款耳坠加上流苏珍珠的配饰，小众的设计感让它更显特别，超级惊艳啊！😻
+不管你是束发还是散发，这款耳坠都能非常好地突出你的气质。而且还有耳夹版本，省去耳洞的烦恼。💎
+设计十分时尚精巧，不管是日常穿着还是参加聚会，它都能是你的最佳搭档。而且价格也非常亲民，比起那些大牌珠宝要便宜很多！👌
+如果你是那种喜欢小众设计感的姑娘，那这款耳坠简直是绝对不能错过的！记得关注我的主页，更多时尚好物等你来发现哦！💖</t>
   </si>
   <si>
     <t>s999足银超闪四芒星耳坠设计感小众长款流苏珍珠耳钉2023耳夹</t>
@@ -1042,10 +3405,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1394,8 +3763,8 @@
   <sheetPr/>
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1422,507 +3791,1090 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" ht="214.5" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="160.5" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="159" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="207" spans="2:5">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="5:5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="187.5" spans="2:5">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="5:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="160.5" spans="2:5">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="5:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="220.5" spans="2:5">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="5:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" ht="204" spans="2:5">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="5:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="187.5" spans="2:5">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="5:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" ht="144" spans="2:5">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="E11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="5:5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" ht="160.5" spans="2:5">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="E12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="5:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" ht="189" spans="2:5">
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="E13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="5:5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" ht="222" spans="2:5">
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="E14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="5:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" ht="190.5" spans="2:5">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="E15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="5:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" ht="201" spans="2:5">
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" ht="177" spans="2:5">
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="E17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" ht="174" spans="2:5">
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="E18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" ht="204" spans="2:5">
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="E19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" ht="187.5" spans="2:5">
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="E20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" ht="175.5" spans="2:5">
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="E21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" ht="187.5" spans="2:5">
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="E22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" ht="201" spans="2:5">
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="E23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" ht="217.5" spans="2:5">
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="E24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" ht="163.5" spans="2:5">
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="E25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" ht="217.5" spans="2:5">
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" ht="189" spans="2:5">
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="E27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="5:5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" ht="189" spans="2:5">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="E28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="5:5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" ht="217.5" spans="2:5">
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="E29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="5:5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" ht="189" spans="2:5">
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="E30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="5:5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" ht="202.5" spans="2:5">
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="E31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="5:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" ht="204" spans="2:5">
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="E32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" ht="216" spans="2:5">
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="E33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" ht="265.5" spans="2:5">
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="E34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="5:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" ht="202.5" spans="2:5">
+      <c r="B35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="E35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="5:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" ht="216" spans="2:5">
+      <c r="B36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="E36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="5:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" ht="264" spans="2:5">
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="E37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="5:5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" ht="205.5" spans="2:5">
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="E38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="5:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" ht="205.5" spans="2:5">
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="E39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="5:5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" ht="174" spans="2:5">
+      <c r="B40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="5:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" ht="187.5" spans="2:5">
+      <c r="B41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="E41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="5:5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" ht="279" spans="2:5">
+      <c r="B42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="E42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="5:5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" ht="175.5" spans="2:5">
+      <c r="B43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="5:5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" ht="175.5" spans="2:5">
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="E44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="5:5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" ht="204" spans="2:5">
+      <c r="B45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="E45" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="5:5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" ht="204" spans="2:5">
+      <c r="B46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="E46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="5:5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" ht="190.5" spans="2:5">
+      <c r="B47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="E47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="5:5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" ht="187.5" spans="2:5">
+      <c r="B48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="E48" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" ht="189" spans="2:5">
+      <c r="B49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="E49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" ht="219" spans="2:5">
+      <c r="B50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="E50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="5:5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" ht="204" spans="2:5">
+      <c r="B51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="E51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="5:5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" ht="189" spans="2:5">
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="E52" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="5:5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" ht="217.5" spans="2:5">
+      <c r="B53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="E53" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="5:5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" ht="189" spans="2:5">
+      <c r="B54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="E54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="5:5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" ht="232.5" spans="2:5">
+      <c r="B55" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="E55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="5:5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" ht="187.5" spans="2:5">
+      <c r="B56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="E56" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="5:5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" ht="216" spans="2:5">
+      <c r="B57" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="E57" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="5:5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" ht="204" spans="2:5">
+      <c r="B58" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="E58" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="5:5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" ht="243" spans="2:5">
+      <c r="B59" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="E59" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="5:5">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" ht="228" spans="2:5">
+      <c r="B60" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="E60" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="5:5">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" ht="172.5" spans="2:5">
+      <c r="B61" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="E61" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="5:5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" ht="175.5" spans="2:5">
+      <c r="B62" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="E62" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="5:5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" ht="207" spans="2:5">
+      <c r="B63" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="E63" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="5:5">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" ht="174" spans="2:5">
+      <c r="B64" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="E64" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="5:5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" ht="175.5" spans="2:5">
+      <c r="B65" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="E65" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="5:5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" ht="189" spans="2:5">
+      <c r="B66" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="E66" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="5:5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" ht="201" spans="2:5">
+      <c r="B67" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="E67" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" spans="5:5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" ht="192" spans="2:5">
+      <c r="B68" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="E68" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="5:5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" ht="214.5" spans="2:5">
+      <c r="B69" t="s">
+        <v>209</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="E69" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="5:5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" ht="216" spans="2:5">
+      <c r="B70" t="s">
+        <v>212</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>213</v>
+      </c>
       <c r="E70" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71" spans="5:5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" ht="292.5" spans="2:5">
+      <c r="B71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="E71" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="5:5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="72" ht="204" spans="2:5">
+      <c r="B72" t="s">
+        <v>218</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>219</v>
+      </c>
       <c r="E72" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="5:5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" ht="190.5" spans="2:5">
+      <c r="B73" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>222</v>
+      </c>
       <c r="E73" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="5:5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" ht="159" spans="2:5">
+      <c r="B74" t="s">
+        <v>224</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="E74" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="5:5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" ht="177" spans="2:5">
+      <c r="B75" t="s">
+        <v>227</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="E75" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="5:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" ht="177" spans="2:5">
+      <c r="B76" t="s">
+        <v>230</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>231</v>
+      </c>
       <c r="E76" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="77" spans="5:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" ht="177" spans="2:5">
+      <c r="B77" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="E77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="5:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" ht="172.5" spans="2:5">
+      <c r="B78" t="s">
+        <v>236</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>237</v>
+      </c>
       <c r="E78" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="5:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="79" ht="217.5" spans="2:5">
+      <c r="B79" t="s">
+        <v>239</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="E79" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="80" spans="5:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5">
+      <c r="C80" t="s">
+        <v>242</v>
+      </c>
       <c r="E80" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="81" spans="5:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="81" ht="157.5" spans="2:5">
+      <c r="B81" t="s">
+        <v>244</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="E81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="82" spans="5:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="82" ht="190.5" spans="2:5">
+      <c r="B82" t="s">
+        <v>247</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="E82" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" spans="5:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="83" ht="190.5" spans="2:5">
+      <c r="B83" t="s">
+        <v>250</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="E83" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="5:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="84" ht="199.5" spans="2:5">
+      <c r="B84" t="s">
+        <v>253</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="E84" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85" spans="5:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" ht="205.5" spans="2:5">
+      <c r="B85" t="s">
+        <v>256</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>257</v>
+      </c>
       <c r="E85" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="86" spans="5:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="86" ht="219" spans="2:5">
+      <c r="B86" t="s">
+        <v>259</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="E86" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="87" spans="5:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="87" ht="202.5" spans="2:5">
+      <c r="B87" t="s">
+        <v>262</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>263</v>
+      </c>
       <c r="E87" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="88" spans="5:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="88" ht="187.5" spans="2:5">
+      <c r="B88" t="s">
+        <v>265</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="E88" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="89" spans="5:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="89" ht="216" spans="2:5">
+      <c r="B89" t="s">
+        <v>268</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>269</v>
+      </c>
       <c r="E89" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="90" spans="5:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="90" ht="189" spans="2:5">
+      <c r="B90" t="s">
+        <v>271</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>272</v>
+      </c>
       <c r="E90" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="91" spans="5:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="91" ht="205.5" spans="2:5">
+      <c r="B91" t="s">
+        <v>274</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>275</v>
+      </c>
       <c r="E91" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="92" spans="5:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="92" ht="202.5" spans="2:5">
+      <c r="B92" t="s">
+        <v>277</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>278</v>
+      </c>
       <c r="E92" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="93" spans="5:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="93" ht="201" spans="2:5">
+      <c r="B93" t="s">
+        <v>280</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="E93" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="94" spans="5:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="94" ht="175.5" spans="2:5">
+      <c r="B94" t="s">
+        <v>283</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="E94" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="5:5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="95" ht="232.5" spans="2:5">
+      <c r="B95" t="s">
+        <v>286</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>287</v>
+      </c>
       <c r="E95" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="96" spans="5:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="96" ht="202.5" spans="2:5">
+      <c r="B96" t="s">
+        <v>289</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="E96" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="97" spans="5:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="97" ht="187.5" spans="2:5">
+      <c r="B97" t="s">
+        <v>292</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="E97" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="98" spans="5:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="98" ht="160.5" spans="2:5">
+      <c r="B98" t="s">
+        <v>295</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>296</v>
+      </c>
       <c r="E98" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="99" spans="5:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99" ht="247.5" spans="2:5">
+      <c r="B99" t="s">
+        <v>298</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="E99" t="s">
-        <v>105</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/xiaohongshu/小红书文案.xlsx
+++ b/xiaohongshu/小红书文案.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="301">
   <si>
     <t>商品关键词</t>
   </si>
@@ -31,18 +31,10 @@
     <t>商品标题</t>
   </si>
   <si>
-    <r>
-      <t>s999</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>纯银，项链，和田玉，锆石锁骨链，国潮风</t>
-    </r>
+    <t>商品素材文件夹</t>
+  </si>
+  <si>
+    <t>货源ID</t>
   </si>
   <si>
     <t xml:space="preserve">“你的本命年守护神”s999纯银本命年月亮兔项链女和田玉心形锆石锁骨链国潮风项链 💫 </t>
@@ -78,16 +70,31 @@
   </si>
   <si>
     <r>
-      <t>s999</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>纯银，和田玉，项链，平安喜乐，吊牌锁骨链，轻奢</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>E:\yingdao\xiaohongshu\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品素材文件夹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
     </r>
   </si>
   <si>
@@ -118,20 +125,6 @@
         <charset val="134"/>
       </rPr>
       <t>纯银和田玉项链女平安喜乐吊牌锁骨链轻奢新款玉兔毛衣链</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>s999</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>纯银，一字镶钻，珍珠耳钉，法式复古，气质耳环，设计感优雅，耳饰</t>
     </r>
   </si>
   <si>
@@ -318,6 +311,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
@@ -667,6 +666,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
@@ -925,6 +930,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
@@ -1087,6 +1098,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
@@ -1262,6 +1279,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>超美星星耳钉，</t>
     </r>
     <r>
@@ -1309,6 +1332,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> 
 </t>
     </r>
@@ -1574,6 +1603,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
@@ -1805,6 +1840,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
@@ -2786,11 +2827,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -3405,9 +3447,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -3761,1121 +3805,1777 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D47" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="38.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="55.2857142857143" customWidth="1"/>
     <col min="3" max="5" width="69.4190476190476" customWidth="1"/>
+    <col min="6" max="6" width="55.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="14.4285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="214.5" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="2" ht="214.5" spans="1:7">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" ht="160.5" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>706465526927</v>
+      </c>
+    </row>
+    <row r="3" ht="160.5" spans="1:7">
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" ht="159" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>706159675631</v>
+      </c>
+    </row>
+    <row r="4" ht="159" spans="1:7">
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" ht="207" spans="2:5">
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>710424952664</v>
+      </c>
+    </row>
+    <row r="5" ht="207" spans="2:7">
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" ht="187.5" spans="2:5">
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>712179396247</v>
+      </c>
+    </row>
+    <row r="6" ht="187.5" spans="2:7">
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" ht="160.5" spans="2:5">
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <v>699938472896</v>
+      </c>
+    </row>
+    <row r="7" ht="160.5" spans="2:7">
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" ht="220.5" spans="2:5">
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>713560485149</v>
+      </c>
+    </row>
+    <row r="8" ht="220.5" spans="2:7">
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" ht="204" spans="2:5">
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>712663815531</v>
+      </c>
+    </row>
+    <row r="9" ht="204" spans="2:7">
       <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" ht="187.5" spans="2:5">
+      <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1">
+        <v>700250053206</v>
+      </c>
+    </row>
+    <row r="10" ht="187.5" spans="2:7">
       <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" ht="144" spans="2:5">
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1">
+        <v>713099743562</v>
+      </c>
+    </row>
+    <row r="11" ht="144" spans="2:7">
       <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" ht="160.5" spans="2:5">
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
+        <v>712104134431</v>
+      </c>
+    </row>
+    <row r="12" ht="160.5" spans="2:7">
       <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" ht="189" spans="2:5">
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1">
+        <v>711745328598</v>
+      </c>
+    </row>
+    <row r="13" ht="189" spans="2:7">
       <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" ht="222" spans="2:5">
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>712684681175</v>
+      </c>
+    </row>
+    <row r="14" ht="222" spans="2:7">
       <c r="B14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" ht="190.5" spans="2:5">
+      <c r="F14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <v>712385665618</v>
+      </c>
+    </row>
+    <row r="15" ht="190.5" spans="2:7">
       <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" ht="201" spans="2:5">
+      <c r="F15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1">
+        <v>699972649380</v>
+      </c>
+    </row>
+    <row r="16" ht="201" spans="2:7">
       <c r="B16" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" ht="177" spans="2:5">
+      <c r="F16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1">
+        <v>699666260863</v>
+      </c>
+    </row>
+    <row r="17" ht="177" spans="2:7">
       <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>54</v>
       </c>
       <c r="E17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" ht="174" spans="2:5">
+      <c r="F17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1">
+        <v>700642896442</v>
+      </c>
+    </row>
+    <row r="18" ht="174" spans="2:7">
       <c r="B18" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E18" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" ht="204" spans="2:5">
+      <c r="F18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
+        <v>712636626043</v>
+      </c>
+    </row>
+    <row r="19" ht="204" spans="2:7">
       <c r="B19" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E19" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" ht="187.5" spans="2:5">
+      <c r="F19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <v>712197693880</v>
+      </c>
+    </row>
+    <row r="20" ht="187.5" spans="2:7">
       <c r="B20" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E20" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" ht="175.5" spans="2:5">
+      <c r="F20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1">
+        <v>713359950383</v>
+      </c>
+    </row>
+    <row r="21" ht="175.5" spans="2:7">
       <c r="B21" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>66</v>
       </c>
       <c r="E21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" ht="187.5" spans="2:5">
+      <c r="F21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1">
+        <v>708549199289</v>
+      </c>
+    </row>
+    <row r="22" ht="187.5" spans="2:7">
       <c r="B22" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E22" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" ht="201" spans="2:5">
+      <c r="F22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1">
+        <v>714890059936</v>
+      </c>
+    </row>
+    <row r="23" ht="201" spans="2:7">
       <c r="B23" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E23" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" ht="217.5" spans="2:5">
+      <c r="F23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1">
+        <v>707722818311</v>
+      </c>
+    </row>
+    <row r="24" ht="217.5" spans="2:7">
       <c r="B24" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="6" t="s">
         <v>75</v>
       </c>
       <c r="E24" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="25" ht="163.5" spans="2:5">
+      <c r="F24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1">
+        <v>701495870830</v>
+      </c>
+    </row>
+    <row r="25" ht="163.5" spans="2:7">
       <c r="B25" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" ht="217.5" spans="2:5">
+      <c r="F25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="1">
+        <v>713373325528</v>
+      </c>
+    </row>
+    <row r="26" ht="217.5" spans="2:7">
       <c r="B26" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="6" t="s">
         <v>81</v>
       </c>
       <c r="E26" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="27" ht="189" spans="2:5">
+      <c r="F26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="1">
+        <v>707327207672</v>
+      </c>
+    </row>
+    <row r="27" ht="189" spans="2:7">
       <c r="B27" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E27" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="28" ht="189" spans="2:5">
+      <c r="F27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="1">
+        <v>713812827103</v>
+      </c>
+    </row>
+    <row r="28" ht="189" spans="2:7">
       <c r="B28" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>87</v>
       </c>
       <c r="E28" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="29" ht="217.5" spans="2:5">
+      <c r="F28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1">
+        <v>700484634224</v>
+      </c>
+    </row>
+    <row r="29" ht="217.5" spans="2:7">
       <c r="B29" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E29" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="30" ht="189" spans="2:5">
+      <c r="F29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1">
+        <v>707272216621</v>
+      </c>
+    </row>
+    <row r="30" ht="189" spans="2:7">
       <c r="B30" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="6" t="s">
         <v>93</v>
       </c>
       <c r="E30" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="31" ht="202.5" spans="2:5">
+      <c r="F30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="1">
+        <v>708546156652</v>
+      </c>
+    </row>
+    <row r="31" ht="202.5" spans="2:7">
       <c r="B31" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E31" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="32" ht="204" spans="2:5">
+      <c r="F31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="1">
+        <v>707538725685</v>
+      </c>
+    </row>
+    <row r="32" ht="204" spans="2:7">
       <c r="B32" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E32" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" ht="216" spans="2:5">
+      <c r="F32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1">
+        <v>714313623660</v>
+      </c>
+    </row>
+    <row r="33" ht="216" spans="2:7">
       <c r="B33" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E33" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="34" ht="265.5" spans="2:5">
+      <c r="F33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="1">
+        <v>708416995723</v>
+      </c>
+    </row>
+    <row r="34" ht="265.5" spans="2:7">
       <c r="B34" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="5" t="s">
         <v>105</v>
       </c>
       <c r="E34" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="35" ht="202.5" spans="2:5">
+      <c r="F34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="1">
+        <v>709798712014</v>
+      </c>
+    </row>
+    <row r="35" ht="202.5" spans="2:7">
       <c r="B35" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="6" t="s">
         <v>108</v>
       </c>
       <c r="E35" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="36" ht="216" spans="2:5">
-      <c r="B36" s="1" t="s">
+      <c r="F35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="1">
+        <v>700922059405</v>
+      </c>
+    </row>
+    <row r="36" ht="216" spans="2:7">
+      <c r="B36" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="5" t="s">
         <v>111</v>
       </c>
       <c r="E36" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="37" ht="264" spans="2:5">
+      <c r="F36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="1">
+        <v>707877484205</v>
+      </c>
+    </row>
+    <row r="37" ht="264" spans="2:7">
       <c r="B37" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="5" t="s">
         <v>114</v>
       </c>
       <c r="E37" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="38" ht="205.5" spans="2:5">
+      <c r="F37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="1">
+        <v>710635139889</v>
+      </c>
+    </row>
+    <row r="38" ht="205.5" spans="2:7">
       <c r="B38" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="6" t="s">
         <v>117</v>
       </c>
       <c r="E38" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="39" ht="205.5" spans="2:5">
+      <c r="F38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="1">
+        <v>709774124195</v>
+      </c>
+    </row>
+    <row r="39" ht="205.5" spans="2:7">
       <c r="B39" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="6" t="s">
         <v>120</v>
       </c>
       <c r="E39" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="40" ht="174" spans="2:5">
+      <c r="F39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="1">
+        <v>712839543743</v>
+      </c>
+    </row>
+    <row r="40" ht="174" spans="2:7">
       <c r="B40" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="5" t="s">
         <v>123</v>
       </c>
       <c r="E40" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="41" ht="187.5" spans="2:5">
+      <c r="F40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="1">
+        <v>712287616758</v>
+      </c>
+    </row>
+    <row r="41" ht="187.5" spans="2:7">
       <c r="B41" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="6" t="s">
         <v>126</v>
       </c>
       <c r="E41" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="42" ht="279" spans="2:5">
+      <c r="F41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="1">
+        <v>696928906228</v>
+      </c>
+    </row>
+    <row r="42" ht="279" spans="2:7">
       <c r="B42" t="s">
         <v>128</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="6" t="s">
         <v>129</v>
       </c>
       <c r="E42" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="43" ht="175.5" spans="2:5">
+      <c r="F42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="1">
+        <v>699951201926</v>
+      </c>
+    </row>
+    <row r="43" ht="175.5" spans="2:7">
       <c r="B43" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="6" t="s">
         <v>132</v>
       </c>
       <c r="E43" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="44" ht="175.5" spans="2:5">
+      <c r="F43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="1">
+        <v>700883314777</v>
+      </c>
+    </row>
+    <row r="44" ht="175.5" spans="2:7">
       <c r="B44" t="s">
         <v>134</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="6" t="s">
         <v>135</v>
       </c>
       <c r="E44" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="45" ht="204" spans="2:5">
+      <c r="F44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="1">
+        <v>710361581460</v>
+      </c>
+    </row>
+    <row r="45" ht="204" spans="2:7">
       <c r="B45" t="s">
         <v>137</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="6" t="s">
         <v>138</v>
       </c>
       <c r="E45" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="46" ht="204" spans="2:5">
+      <c r="F45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="1">
+        <v>709904298904</v>
+      </c>
+    </row>
+    <row r="46" ht="204" spans="2:7">
       <c r="B46" t="s">
         <v>140</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="6" t="s">
         <v>141</v>
       </c>
       <c r="E46" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="47" ht="190.5" spans="2:5">
+      <c r="F46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="1">
+        <v>707088422639</v>
+      </c>
+    </row>
+    <row r="47" ht="190.5" spans="2:7">
       <c r="B47" t="s">
         <v>143</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E47" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="48" ht="187.5" spans="2:5">
+      <c r="F47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="1">
+        <v>711648792097</v>
+      </c>
+    </row>
+    <row r="48" ht="187.5" spans="2:7">
       <c r="B48" t="s">
         <v>146</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="6" t="s">
         <v>147</v>
       </c>
       <c r="E48" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="49" ht="189" spans="2:5">
+      <c r="F48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="1">
+        <v>709945924013</v>
+      </c>
+    </row>
+    <row r="49" ht="189" spans="2:7">
       <c r="B49" t="s">
         <v>149</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E49" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="50" ht="219" spans="2:5">
+      <c r="F49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="1">
+        <v>707550363723</v>
+      </c>
+    </row>
+    <row r="50" ht="219" spans="2:7">
       <c r="B50" t="s">
         <v>152</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="6" t="s">
         <v>153</v>
       </c>
       <c r="E50" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="51" ht="204" spans="2:5">
+      <c r="F50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="1">
+        <v>707711828784</v>
+      </c>
+    </row>
+    <row r="51" ht="204" spans="2:7">
       <c r="B51" t="s">
         <v>155</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="6" t="s">
         <v>156</v>
       </c>
       <c r="E51" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="52" ht="189" spans="2:5">
+      <c r="F51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="1">
+        <v>700187692113</v>
+      </c>
+    </row>
+    <row r="52" ht="189" spans="2:7">
       <c r="B52" t="s">
         <v>158</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="6" t="s">
         <v>159</v>
       </c>
       <c r="E52" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="53" ht="217.5" spans="2:5">
+      <c r="F52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="1">
+        <v>708326750855</v>
+      </c>
+    </row>
+    <row r="53" ht="217.5" spans="2:7">
       <c r="B53" t="s">
         <v>161</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="6" t="s">
         <v>162</v>
       </c>
       <c r="E53" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="54" ht="189" spans="2:5">
+      <c r="F53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="1">
+        <v>710352549829</v>
+      </c>
+    </row>
+    <row r="54" ht="189" spans="2:7">
       <c r="B54" t="s">
         <v>164</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="6" t="s">
         <v>165</v>
       </c>
       <c r="E54" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="55" ht="232.5" spans="2:5">
+      <c r="F54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="1">
+        <v>705655768541</v>
+      </c>
+    </row>
+    <row r="55" ht="232.5" spans="2:7">
       <c r="B55" t="s">
         <v>167</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="6" t="s">
         <v>168</v>
       </c>
       <c r="E55" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="56" ht="187.5" spans="2:5">
+      <c r="F55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="1">
+        <v>713172071712</v>
+      </c>
+    </row>
+    <row r="56" ht="187.5" spans="2:7">
       <c r="B56" t="s">
         <v>170</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="6" t="s">
         <v>171</v>
       </c>
       <c r="E56" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="57" ht="216" spans="2:5">
+      <c r="F56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="1">
+        <v>712455223190</v>
+      </c>
+    </row>
+    <row r="57" ht="216" spans="2:7">
       <c r="B57" t="s">
         <v>173</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="6" t="s">
         <v>174</v>
       </c>
       <c r="E57" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="58" ht="204" spans="2:5">
+      <c r="F57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="1">
+        <v>709629976518</v>
+      </c>
+    </row>
+    <row r="58" ht="204" spans="2:7">
       <c r="B58" t="s">
         <v>176</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="6" t="s">
         <v>177</v>
       </c>
       <c r="E58" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="59" ht="243" spans="2:5">
+      <c r="F58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="1">
+        <v>708428231754</v>
+      </c>
+    </row>
+    <row r="59" ht="243" spans="2:7">
       <c r="B59" t="s">
         <v>179</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="6" t="s">
         <v>180</v>
       </c>
       <c r="E59" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="60" ht="228" spans="2:5">
+      <c r="F59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="1">
+        <v>709110773936</v>
+      </c>
+    </row>
+    <row r="60" ht="228" spans="2:7">
       <c r="B60" t="s">
         <v>182</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="6" t="s">
         <v>183</v>
       </c>
       <c r="E60" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="61" ht="172.5" spans="2:5">
+      <c r="F60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="1">
+        <v>707240152320</v>
+      </c>
+    </row>
+    <row r="61" ht="172.5" spans="2:7">
       <c r="B61" t="s">
         <v>185</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="6" t="s">
         <v>186</v>
       </c>
       <c r="E61" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="62" ht="175.5" spans="2:5">
+      <c r="F61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="1">
+        <v>703864949539</v>
+      </c>
+    </row>
+    <row r="62" ht="175.5" spans="2:7">
       <c r="B62" t="s">
         <v>188</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="6" t="s">
         <v>189</v>
       </c>
       <c r="E62" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="63" ht="207" spans="2:5">
+      <c r="F62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="1">
+        <v>706386894134</v>
+      </c>
+    </row>
+    <row r="63" ht="207" spans="2:7">
       <c r="B63" t="s">
         <v>191</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="6" t="s">
         <v>192</v>
       </c>
       <c r="E63" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="64" ht="174" spans="2:5">
+      <c r="F63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="1">
+        <v>710802439151</v>
+      </c>
+    </row>
+    <row r="64" ht="174" spans="2:7">
       <c r="B64" t="s">
         <v>194</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="6" t="s">
         <v>195</v>
       </c>
       <c r="E64" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="65" ht="175.5" spans="2:5">
+      <c r="F64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="1">
+        <v>690415660812</v>
+      </c>
+    </row>
+    <row r="65" ht="175.5" spans="2:7">
       <c r="B65" t="s">
         <v>197</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="6" t="s">
         <v>198</v>
       </c>
       <c r="E65" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="66" ht="189" spans="2:5">
+      <c r="F65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="1">
+        <v>670115009085</v>
+      </c>
+    </row>
+    <row r="66" ht="189" spans="2:7">
       <c r="B66" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="6" t="s">
         <v>201</v>
       </c>
       <c r="E66" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="67" ht="201" spans="2:5">
+      <c r="F66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="1">
+        <v>694673164395</v>
+      </c>
+    </row>
+    <row r="67" ht="201" spans="2:7">
       <c r="B67" t="s">
         <v>203</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="6" t="s">
         <v>204</v>
       </c>
       <c r="E67" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="68" ht="192" spans="2:5">
+      <c r="F67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="1">
+        <v>694251418250</v>
+      </c>
+    </row>
+    <row r="68" ht="192" spans="2:7">
       <c r="B68" t="s">
         <v>206</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="6" t="s">
         <v>207</v>
       </c>
       <c r="E68" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="69" ht="214.5" spans="2:5">
+      <c r="F68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="1">
+        <v>695178682169</v>
+      </c>
+    </row>
+    <row r="69" ht="214.5" spans="2:7">
       <c r="B69" t="s">
         <v>209</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="6" t="s">
         <v>210</v>
       </c>
       <c r="E69" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="70" ht="216" spans="2:5">
+      <c r="F69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="1">
+        <v>693982000531</v>
+      </c>
+    </row>
+    <row r="70" ht="216" spans="2:7">
       <c r="B70" t="s">
         <v>212</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="6" t="s">
         <v>213</v>
       </c>
       <c r="E70" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="71" ht="292.5" spans="2:5">
+      <c r="F70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="1">
+        <v>694770592051</v>
+      </c>
+    </row>
+    <row r="71" ht="292.5" spans="2:7">
       <c r="B71" t="s">
         <v>215</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="6" t="s">
         <v>216</v>
       </c>
       <c r="E71" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="72" ht="204" spans="2:5">
+      <c r="F71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="1">
+        <v>694643946612</v>
+      </c>
+    </row>
+    <row r="72" ht="204" spans="2:7">
       <c r="B72" t="s">
         <v>218</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="6" t="s">
         <v>219</v>
       </c>
       <c r="E72" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="73" ht="190.5" spans="2:5">
+      <c r="F72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="1">
+        <v>694833797657</v>
+      </c>
+    </row>
+    <row r="73" ht="190.5" spans="2:7">
       <c r="B73" t="s">
         <v>221</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="6" t="s">
         <v>222</v>
       </c>
       <c r="E73" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="74" ht="159" spans="2:5">
+      <c r="F73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="1">
+        <v>693912096965</v>
+      </c>
+    </row>
+    <row r="74" ht="159" spans="2:7">
       <c r="B74" t="s">
         <v>224</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="6" t="s">
         <v>225</v>
       </c>
       <c r="E74" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="75" ht="177" spans="2:5">
+      <c r="F74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="1">
+        <v>695362715424</v>
+      </c>
+    </row>
+    <row r="75" ht="177" spans="2:7">
       <c r="B75" t="s">
         <v>227</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="6" t="s">
         <v>228</v>
       </c>
       <c r="E75" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="76" ht="177" spans="2:5">
+      <c r="F75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="1">
+        <v>694040502952</v>
+      </c>
+    </row>
+    <row r="76" ht="177" spans="2:7">
       <c r="B76" t="s">
         <v>230</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="6" t="s">
         <v>231</v>
       </c>
       <c r="E76" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="77" ht="177" spans="2:5">
+      <c r="F76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="1">
+        <v>695020078704</v>
+      </c>
+    </row>
+    <row r="77" ht="177" spans="2:7">
       <c r="B77" t="s">
         <v>233</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="6" t="s">
         <v>234</v>
       </c>
       <c r="E77" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="78" ht="172.5" spans="2:5">
+      <c r="F77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="1">
+        <v>695287979584</v>
+      </c>
+    </row>
+    <row r="78" ht="172.5" spans="2:7">
       <c r="B78" t="s">
         <v>236</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="6" t="s">
         <v>237</v>
       </c>
       <c r="E78" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="79" ht="217.5" spans="2:5">
+      <c r="F78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="1">
+        <v>695594211601</v>
+      </c>
+    </row>
+    <row r="79" ht="217.5" spans="2:7">
       <c r="B79" t="s">
         <v>239</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="6" t="s">
         <v>240</v>
       </c>
       <c r="E79" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="80" spans="3:5">
+      <c r="F79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="1">
+        <v>694820478450</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7">
       <c r="C80" t="s">
         <v>242</v>
       </c>
       <c r="E80" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="81" ht="157.5" spans="2:5">
+      <c r="F80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="1">
+        <v>694450264893</v>
+      </c>
+    </row>
+    <row r="81" ht="157.5" spans="2:7">
       <c r="B81" t="s">
         <v>244</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="6" t="s">
         <v>245</v>
       </c>
       <c r="E81" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="82" ht="190.5" spans="2:5">
+      <c r="F81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="1">
+        <v>694569118340</v>
+      </c>
+    </row>
+    <row r="82" ht="190.5" spans="2:7">
       <c r="B82" t="s">
         <v>247</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="6" t="s">
         <v>248</v>
       </c>
       <c r="E82" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="83" ht="190.5" spans="2:5">
+      <c r="F82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="1">
+        <v>694763661895</v>
+      </c>
+    </row>
+    <row r="83" ht="190.5" spans="2:7">
       <c r="B83" t="s">
         <v>250</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="6" t="s">
         <v>251</v>
       </c>
       <c r="E83" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="84" ht="199.5" spans="2:5">
+      <c r="F83" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="1">
+        <v>694561325105</v>
+      </c>
+    </row>
+    <row r="84" ht="199.5" spans="2:7">
       <c r="B84" t="s">
         <v>253</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="6" t="s">
         <v>254</v>
       </c>
       <c r="E84" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="85" ht="205.5" spans="2:5">
+      <c r="F84" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="1">
+        <v>695117871291</v>
+      </c>
+    </row>
+    <row r="85" ht="205.5" spans="2:7">
       <c r="B85" t="s">
         <v>256</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="6" t="s">
         <v>257</v>
       </c>
       <c r="E85" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="86" ht="219" spans="2:5">
+      <c r="F85" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="1">
+        <v>694345136671</v>
+      </c>
+    </row>
+    <row r="86" ht="219" spans="2:7">
       <c r="B86" t="s">
         <v>259</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="6" t="s">
         <v>260</v>
       </c>
       <c r="E86" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="87" ht="202.5" spans="2:5">
+      <c r="F86" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="1">
+        <v>700064245320</v>
+      </c>
+    </row>
+    <row r="87" ht="202.5" spans="2:7">
       <c r="B87" t="s">
         <v>262</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="6" t="s">
         <v>263</v>
       </c>
       <c r="E87" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="88" ht="187.5" spans="2:5">
+      <c r="F87" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="1">
+        <v>694314096465</v>
+      </c>
+    </row>
+    <row r="88" ht="187.5" spans="2:7">
       <c r="B88" t="s">
         <v>265</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="6" t="s">
         <v>266</v>
       </c>
       <c r="E88" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="89" ht="216" spans="2:5">
+      <c r="F88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="1">
+        <v>714998971624</v>
+      </c>
+    </row>
+    <row r="89" ht="216" spans="2:7">
       <c r="B89" t="s">
         <v>268</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="6" t="s">
         <v>269</v>
       </c>
       <c r="E89" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="90" ht="189" spans="2:5">
+      <c r="F89" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="1">
+        <v>715124919178</v>
+      </c>
+    </row>
+    <row r="90" ht="189" spans="2:7">
       <c r="B90" t="s">
         <v>271</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="6" t="s">
         <v>272</v>
       </c>
       <c r="E90" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="91" ht="205.5" spans="2:5">
+      <c r="F90" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="1">
+        <v>700261294784</v>
+      </c>
+    </row>
+    <row r="91" ht="205.5" spans="2:7">
       <c r="B91" t="s">
         <v>274</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="6" t="s">
         <v>275</v>
       </c>
       <c r="E91" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="92" ht="202.5" spans="2:5">
+      <c r="F91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="1">
+        <v>699928180308</v>
+      </c>
+    </row>
+    <row r="92" ht="202.5" spans="2:7">
       <c r="B92" t="s">
         <v>277</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="6" t="s">
         <v>278</v>
       </c>
       <c r="E92" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="93" ht="201" spans="2:5">
+      <c r="F92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="1">
+        <v>707700184161</v>
+      </c>
+    </row>
+    <row r="93" ht="201" spans="2:7">
       <c r="B93" t="s">
         <v>280</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="6" t="s">
         <v>281</v>
       </c>
       <c r="E93" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="94" ht="175.5" spans="2:5">
+      <c r="F93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="1">
+        <v>714158428100</v>
+      </c>
+    </row>
+    <row r="94" ht="175.5" spans="2:7">
       <c r="B94" t="s">
         <v>283</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="6" t="s">
         <v>284</v>
       </c>
       <c r="E94" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="95" ht="232.5" spans="2:5">
+      <c r="F94" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="1">
+        <v>701135883622</v>
+      </c>
+    </row>
+    <row r="95" ht="232.5" spans="2:7">
       <c r="B95" t="s">
         <v>286</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="6" t="s">
         <v>287</v>
       </c>
       <c r="E95" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="96" ht="202.5" spans="2:5">
+      <c r="F95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="1">
+        <v>715482739366</v>
+      </c>
+    </row>
+    <row r="96" ht="202.5" spans="2:7">
       <c r="B96" t="s">
         <v>289</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E96" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="97" ht="187.5" spans="2:5">
+      <c r="F96" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="1">
+        <v>714454464674</v>
+      </c>
+    </row>
+    <row r="97" ht="187.5" spans="2:7">
       <c r="B97" t="s">
         <v>292</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="6" t="s">
         <v>293</v>
       </c>
       <c r="E97" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="98" ht="160.5" spans="2:5">
+      <c r="F97" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="1">
+        <v>713489948037</v>
+      </c>
+    </row>
+    <row r="98" ht="160.5" spans="2:7">
       <c r="B98" t="s">
         <v>295</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="6" t="s">
         <v>296</v>
       </c>
       <c r="E98" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="99" ht="247.5" spans="2:5">
+      <c r="F98" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="1">
+        <v>705723229219</v>
+      </c>
+    </row>
+    <row r="99" ht="247.5" spans="2:7">
       <c r="B99" t="s">
         <v>298</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="6" t="s">
         <v>299</v>
       </c>
       <c r="E99" t="s">
         <v>300</v>
       </c>
+      <c r="F99" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="1">
+        <v>714688254104</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6">
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="6:6">
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" spans="6:6">
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" spans="6:6">
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="6:6">
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="6:6">
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="6:6">
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" spans="6:6">
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" spans="6:6">
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="6:6">
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" spans="6:6">
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" spans="6:6">
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="6:6">
+      <c r="F112" s="4"/>
+    </row>
+    <row r="113" spans="6:6">
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" spans="6:6">
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" spans="6:6">
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" spans="6:6">
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="6:6">
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" spans="6:6">
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="6:6">
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" spans="6:6">
+      <c r="F120" s="4"/>
+    </row>
+    <row r="121" spans="6:6">
+      <c r="F121" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
